--- a/output/Total_time_range_data/河南省/许昌市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/许昌市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1182 +436,1295 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>154</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>河南省党政代表团将赴上海江苏浙江学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2020-11-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/11-15/1890403.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['11月16日上午，我省党政代表团将赴上海、江苏、浙江学习考察，深入贯彻落实党的十九届五中全会精神，深度对接长三角一体化和长江经济带国家战略，学习借鉴先进地区发展经验，主动融入“双循环”新发展格局。省委书记王国生、省长尹弘、省政协主席刘伟率团前往。', '考察期间，代表团将赴上海瞻仰中共一大会址、赴浙江嘉兴瞻仰南湖红船，回顾建党历史，传承红色基因，砥砺奋斗精神；与上海、江苏、浙江举行战略合作签约、项目交流合作等一系列政务商务活动，与三地知名企业家和院校负责人举行见面会，并深入多家知名企业、金融机构、科创机构参观考察。', '本次活动将立足我省区位交通、人力资源、市场规模、生态环境等优势，推动河南与上海、江苏、浙江在制造业、农业、金融、旅游、科技创新、教育医疗、基础设施建设等领域的交往交流，进一步深化战略合作、巩固扩大合作成果，打造跨区域合作和国内循环示范样本，推进“十四五”期间全方位、多领域、深层次交流合作，实现各方优势互补、互利共赢，为建设现代化河南提供有力支撑。', '部分省级领导，各省辖市党委、济源示范区党工委主要负责同志，省直有关单位负责同志参加活动。（记者 归欣）']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>154</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨考察点简介</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-14/2742358.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['简介：中国信息通信科技集团有限公司由原武汉邮电科学研究院和原电信科学技术研究院联合重组而成，是国务院国资委直属中央企业，公司注册资本300亿元，资产总额逾1000亿元，员工人数3.5万。集团总部位于湖北省武汉市。中国信科是中国光通信发源地、无线通信领域创新高地，是国际知名、国内领先的信息通信产品和服务核心供应商。集团由6家上市公司、多家非上市公司组成，产业聚焦“光通信、移动通信、光电子和集成电路、网信安全和特种通信、智能化应用、数据通信”六大方面，产品和技术覆盖全球100多个国家和地区，年销售规模600多亿元。', '简介：武汉高德红外股份有限公司创立于1999年，是一家专业从事红外焦平面探测器芯片、红外热成像整机及以红外热成像为核心的综合光电系统、完整装备系统总体研制生产的民营上市公司。目前建有国家级企业技术中心、国家级工业设计中心、湖北省红外光电工程研究中心，是国家制造业单项冠军示范企业、国家技术创新示范企业、国家知识产权示范企业、国家制造业与互联网融合发展试点示范企业、国家服务型制造示范企业，拥有专利322项，获得省部级科技奖项10余项。公司研发生产的红外热成像产品已经在电力、智能制造、智能驾驶等领域广泛应用，并销往全球多个国家和地区，红外热成像整机市场占有率位居全球第二。', '简介：武汉华工激光工程有限责任公司成立于1997年，是国家重点高新技术企业、国际标准制定参与单位、国家标准制定的牵头组织和承担单位。公司围绕“激光+智能制造”，提供从激光智能装备到自动化生产线、智慧工厂的整体解决方案，服务于3C电子、5G通信、钣金加工、新能源、机械制造、汽车制造、轨道交通、医疗、日用消费品和家电等多领域。公司拥有国家级企业技术中心、激光先进制造技术省级重点实验室等创新平台，同时依托激光加工国家工程研究中心、激光技术国家重点实验室、激光工艺加工展示中心3大才智平台，承担激光行业内重点项目和重大科技攻关项目。', '简介：武汉中央文化区楚河汉街是武汉中央文化区一期项目的重要内容，集商业综合体、城市历史文化和生态景观工程于一体。“楚河”全长2.2公里，连通东湖和沙湖；汉街主体采用民国建筑风格，拥有众多时尚流行品牌。楚河汉街的规划设计、建筑特色、招商品牌以文化为核心，突出文化特色，引进包括世界级文化项目在内的大量文化品牌，将汉街打造成文化品位突出的商业步行街。2022年，楚河汉街正式入选文化和旅游部第二批国家级夜间文化和旅游消费集聚区项目名单。（记者 马涛 张笑闻 整理）']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>154</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>江西省农业产业化考察团来豫学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/03-13/2705484.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['3月10日至12日，江西省委常委梁桂、江西省政府副省长卢小青率江西省考察团在豫就农业产业化发展进行学习考察。', '考察团一行先后到新乡市、漯河市、郑州市考察。在新乡市雨轩清真食品股份有限公司、河南九豫全食品有限公司等企业，考察团从产品研发、食品生产加工、运营模式等方面详细了解预制菜产业发展情况；在漯河市，考察团分别到临颍县国家级现代农业科创园、河南中大恒源生物科技有限公司、中原食品实验室、双汇第一工业园、卫龙美味三期产业园实地考察，详细了解现代农业和食品产业发展情况；在郑州市，考察团到好想你健康食品股份有限公司、三全食品股份有限公司等企业，深入考察特色农产品加工业发展情况。', '河南省是农业大省、农产品加工大省。考察团一致认为，河南强化创新驱动、龙头带头、改革推动，不断完善产业链、畅通供应链、提升价值链，农业产业化加速发展，全省农业质量效益和竞争力切实提高。（记者 李虎成 卢松 王延辉）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>154</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>外交部大使参赞学习班调研团来河南考察访问</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2019-12-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/12-25/1101639.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['12月23日下午，在河南省情推介会暨驻外使节座谈会上，副省长何金平向调研团介绍了我省经济社会发展情况。', '何金平说，近年来，我省认真贯彻落实习近平总书记对河南工作的重要指示批示精神，积极参与“一带一路”建设，对外开放呈现出良好发展态势，与多个国家和地区建立了经贸联系，与47个国家的112个地方政府缔结了友好关系，在豫投资的世界500强企业达130家。河南正在由对外开放的“跟跑者”向内陆开放高地建设的“先行者”转变，请外交部及我驻外使领馆一如既往关心支持河南对外开放各项工作。', '调研团团长、中国驻捷克大使张建敏表示，将以此行为契机，深入了解河南的历史文化、经济发展、对外交流情况，更好服务河南发展，为促进河南的国际交流合作营造良好的外部环境。（记者 王绿扬）']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>154</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>省领导带队赴浙江学习考察千万工程经验</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/11-23/2852386.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['学习考察团分两组到杭州、湖州、嘉兴、金华、绍兴等地，深入一个个美丽乡村学习调研，与干部群众交流座谈。孙梅君代表省委、省政府向浙江长期以来对河南发展的支持帮助表示感谢。她说，“千万工程”是习近平总书记在浙江工作时亲自谋划、亲自部署、亲自推动的一项重大决策。“千万工程”实施20年来，指引浙江乡村发生的精彩蝶变，充分彰显了习近平新时代中国特色社会主义思想的真理力量和实践伟力。此次学习考察，是河南贯彻落实习近平总书记对“千万工程”重要批示精神的一项具体行动，是推进主题教育走深走实的一项重要举措，目的就是实地感受习近平新时代中国特色社会主义思想在之江大地的丰硕成果，更加深刻领悟“两个确立”的决定性意义，更加自觉坚定做到“两个维护”，激发建设现代化河南的强劲动力。她指出，学习浙江“千万工程”经验，重点是要学懂弄通做实蕴含其中的方法理念。要珍惜学习机会，对标先进拓思路，带着问题寻对策，学习经验谋发展，把浙江“千万工程”的真经学到手，积极探索“千万工程”河南实践。', '刘捷代表浙江省委、省政府对河南省学习考察团的到来表示欢迎，并介绍了浙江“千万工程”经验。他指出，希望双方加快建立经验交流互鉴机制，开展农业科技联合攻关，协作推动富民产业发展，共同推进“三农”开放合作，携手书写“鱼米之乡”与“中原粮仓”交流合作新篇章。', '各省辖市、济源示范区、航空港区和部分省直单位有关负责同志，20个省级乡村建设示范县负责同志参加学习考察。（记者 刘婵）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>154</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>河南省党政代表团启程赴广东湖北学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-10/2740121.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['在全省上下深入学习贯彻党的二十大精神、深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育之际，5月10日上午，由省委书记楼阳生、省长王凯率领的河南省党政代表团启程赴广东省、湖北省，开展为期4天的学习考察。', '学习考察期间，代表团将先后到广州、东莞、深圳、武汉4市，深入科创企业、产业园区、科研院所、高等院校、金融集团、文化街区等地，学习先进理念，拓展视野格局，借鉴他山之石，深化务实合作；与广东、湖北两省分别举行政务活动，举办豫粤合作交流会，深度对接、积极融入粤港澳大湾区、长江经济带发展战略，在新征程新起点上扎实推进中国式现代化建设河南实践。', '广东是改革开放的排头兵、先行地、实验区，湖北是长江经济带、促进中部地区崛起等多个国家战略的交汇地和承载地。本次活动将着眼高质量发展所需、立足河南所能、学习两省所长，对接两省在对外开放、深化改革、科技创新等方面的优势，在共建高端研发平台、联合开展技术攻关、加强人才交流、发展枢纽经济、促进文旅融合等方面深化合作，共创豫粤、豫鄂合作优势互补、发展互惠共赢的新局面。', '有关省领导，各省辖市党委、济源示范区党工委、航空港区管委会和省直有关单位党组（党委）、省管有关企业党委主要负责同志参加活动。（记者 冯芸 马涛）']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>154</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>河南省党政代表团将赴北京市学习考察</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/12-18/2003571.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['12月19日，我省党政代表团将赴北京市学习考察，认真学习贯彻党的十九届五中全会精神和中央经济工作会议精神，深度对接京津冀协同发展战略，学习借鉴北京市改革创新先进理念、先进经验。省委书记王国生、省长尹弘率团参加。', '学习考察期间，我省将与北京市签署战略合作协议，推动双方在“十四五”期间实现更高水平、更高质量合作交流。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>154</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>河南省乡村振兴示范县学习考察团赴赣浙取经</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/09-09/1764979.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['记者9月8日从省委农办获悉，根据省委、省政府安排，当天，20个河南省乡村振兴示范县党委主要负责同志启程赴江西省横峰县、浙江省安吉县，围绕推动乡村全面振兴、改善农村人居环境学习考察。', '本次学习考察活动从9月8日至11日，由省委、省政府相关负责同志带队，新密市、林州市、孟津县、新县、长垣市等20个乡村振兴示范县党委主要负责同志参加。', '我省正在积极谋划打赢脱贫攻坚战后各项工作，探索脱贫攻坚与乡村振兴有效衔接的具体举措，此次考察取经活动具有重要意义。浙江省安吉县是“绿水青山就是金山银山”理念发源地、中国美丽乡村发源地和绿色发展先行地，形成了具有地方特色的“1+2+3”生态产业体系，美丽乡村创建实现全覆盖；江西省横峰县山水资源丰富，坚持“一村一品”“一乡一业”，构建起以横峰葛、油茶为主导的“1+N”优势特色农业产业体系，“秀美乡村”建设和村级集体经济发展成效显著，两地在推动乡村振兴、人居环境整治方面均走在全国前列。（记者 陈慧）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>154</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>四论学习贯彻习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-24/955575.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['建设生态文明，关系民生福祉，关乎民族未来。习近平总书记此次考察调研河南之行，“生态保护”成为重要议题。在光山县槐店乡司马光油茶园，总书记强调，要坚持走绿色发展的路子；在光山县文殊乡东岳村，总书记强调，要注意节约环保，杜绝过度包装，避免浪费和污染环境；参观黄河博物馆展览，考察黄河国家地质公园，主持召开黄河流域生态保护和高质量发展座谈会，总书记对黄河的保护治理始终念兹在兹。', '在听取河南省委和省政府工作汇报后，总书记强调，要高度重视生态保护工作，牢固树立绿水青山就是金山银山的理念，从源头上解决生态环境问题，持续推进产业结构和能源结构升级优化，努力打造绿色低碳循环发展的经济体系，坚决打赢蓝天、碧水、净土保卫战，统筹推进山水林田湖草系统治理，把沿黄生态保护好，提升自然生态系统质量和稳定性。这一重大要求高瞻远瞩、内涵丰富，对于进一步推动我省生态文明建设，具有很强的针对性和指导性。', '河南在全国生态格局中具有重要地位，地跨淮河、长江、黄河、海河四大流域，大别山、伏牛山、桐柏—太行山沿省界呈半环形分布。党的十八大以来，在习近平生态文明思想的正确指引下，全省上下勠力同心，按下了绿色发展的快进键。通过扎实推进环境治理提效、经济结构提质、生态功能提升、国土绿化提速“四大行动”，全力打好蓝天、碧水、净土三大保卫战，缺林少绿、生态脆弱的状况有所好转，中原大地的“颜值”和“气质”持续提升。位于我省西部的小秦岭国家级自然保护区，修山复绿，关停采矿企业，石头堆里种树，小秦岭又重新披上了绿装；商丘民权林场三代人接力传承，把“盐碱遍地寸草不生”的黄河故道变成了亚洲十大平原人工防护林之一；三门峡天鹅湖国家湿地公园，吸引成千上万的白天鹅栖息越冬，获得了“天鹅之城”的美誉……这些无一不是中原儿女对“绿水青山就是金山银山”理念的生动诠释。', '良好生态环境是一方发展的“金饭碗”，这个“金饭碗”保护和利用好了，生态优势就能够转化为发展优势，实现经济发展和环境保护的双赢。必须清醒地认识到，我省生态文明建设仍处于爬坡攻坚期，环境保护成效并不稳固，全省环境污染和生态破坏的风险隐患仍然较多，践行绿色发展理念的能力尚需不断提高，环境治理的效果与人民群众的期盼还存在一定差距。', '逆水行舟用力撑，一篙松劲退千寻。当前，我国经济已由高速增长阶段转向高质量发展阶段，污染防治和环境治理是必须跨越的重要关口。咬紧牙关，爬过这个坡，迈过这道坎，是义不容辞的责任，更需要舍我其谁的担当。我们要以习近平总书记考察调研河南时重要讲话精神为指引，深入贯彻落实习近平生态文明思想，强化绿水青山就是金山银山的理念，唤起大家对生态环境的敬畏之心、守护之情、保护之意，打牢生态保护的思想基础；要深入实施“四大行动”，持续优化产业结构、能源结构、运输结构、用地结构，打造绿色低碳循环发展的经济体系，倡导简约适度、绿色低碳的生活方式，擦亮绿色发展这个底色；要用最严格的制度、最严密的法治保护生态环境，坚持铁心、铁面、铁腕，确保环境质量不断好转；要坚持节约优先、保护优先、自然恢复为主，统筹推进山水林田湖草系统治理，加快建设森林河南，打一场新时代国土绿化的人民战争。', '环境就是民生，青山就是美丽，蓝天也是幸福。我们要保持历史耐心和战略定力，咬定青山不放松，一张蓝图绘到底，一茬接着一茬干，让绿满中原成为河南的新标识。（河南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>154</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>五论学习贯彻习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019-09-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-25/955886.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['着力解决人民群众所急所需所盼 ——五论学习贯彻习近平总书记考察调研河南时重要讲话精神', '群众利益无小事，一枝一叶总关情。9月18日，习近平总书记在听取河南省委省政府工作汇报后，为我省下一阶段民生工作指明了方向：要切实保障和改善民生，坚持尽力而为、量力而行，办好群众所急、所需、所盼的民生实事；要聚焦“三山一滩”特别是大别山革命老区等深度贫困地区和特殊贫困群体实施攻坚，着力解决“两不愁三保障”突出问题；要出台更多鼓励就业创业的措施，重点解决好高校毕业生、退役军人、下岗职工、农民工、返乡人员等重点人群的就业问题；要加强社会治安综合治理，提高基层社会治理能力，为人民群众创造安居乐业的社会环境。', '习近平总书记心中时刻牵挂的是最广大人民群众。他多次强调，“让改革发展成果惠及更多群众，让人民生活更加幸福美满”。在河南考察调研时，总书记会见老区红军后代、革命烈士家属代表，嘱托“要做好革命老区、贫困地区的工作，保障好老区群众生活”；在光山同乡亲们亲切交流，祝愿乡亲们的生活芝麻开花节节高；鼓励脱贫致富带头人“不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活”……习近平总书记的人民情怀，为各级领导干部树立了标杆。我们要像总书记那样，把人民放到心中最高位置。', '党的十八大以来，在习近平新时代中国特色社会主义思想指引下，河南始终把改革发展的落脚点放在民生上，打好精准脱贫攻坚战，目前贫困发生率下降到1.21%；践行“绿水青山就是金山银山”理念，实施经济结构提质、生态功能提升、国土绿化提速、环境治理提效“四大行动”，推动我省环境质量持续改善；着力扩大社会就业，完善社会保障体系，积极发展社会事业，人民群众获得感幸福感安全感越来越强。', '保障和改善民生没有终点，只有连续不断的新起点，必须坚持与时俱进、永不停步，同时也必须坚持尽力而为、量力而行，抓住群众最关心最直接最现实的利益问题，不断增进民生福祉，让改革发展成果更好更公平惠及人民。', '要坚决打赢脱贫攻坚战，聚焦“两不愁三保障”突出问题，聚焦“三山一滩”特别是大别山革命老区等深度贫困地区和特殊贫困群体，聚焦今年拟退出的14个贫困县，持续抓好“五个一批”，做到因村精准施策、因户帮扶到位。对已经摘帽的贫困县，要持续抓好稳定脱贫、巩固提升。要着力办好民生实事，持续加大民生投入，努力解决群众的操心事、揪心事、烦心事。就业是民生之本，在经济转型发展阶段更要重视就业问题，突出解决好高校毕业生、退役军人、下岗职工、农民工、返乡人员等重点人群就业问题，出台更多鼓励就业创业的措施。要创新完善社会治理，始终立足“稳”这个大局，汲取经验教训，深入开展“防风险、除隐患、保平安、迎大庆”专项行动，确保社会大局和谐稳定。', '“民惟邦本，本固邦宁”。在新中国成立70周年之际激荡再出发的豪情壮志，在“不忘初心、牢记使命”主题教育之中砥砺为人民服务的良好作风，我们要更加注重解决群众最急最需最盼的问题，让人民群众的笑脸一天比一天灿烂。（河南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>154</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨咬定创新不放松</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-13/2742234.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['坐在办公室里开挖掘机，这事儿你想过吗？5月12日，腾讯计算机系统有限公司的展示厅里，工作人员推起电脑前的操纵杆，远在内蒙古一处矿山的机械臂作出了同步反应。在即将离开深圳的这个下午，河南省党政代表团的成员们再一次被鹏城无处不在的科技赋能“击中心窝”。', '“视觉上受了冲击，心灵上受到震撼，思想上有了感悟。”代表团成员、许昌市委书记史根治告诉记者，3天来在广东的学习考察，让大家充分认识到与先进地区的差距，也无可争议地证明了省委、省政府深入推进创新驱动、科教兴省、人才强省战略等“十大战略”的科学性、前瞻性、正确性。“深化创新驱动，是我们实现高质量发展的‘华山一条路’，必须毫不动摇抓牢抓实。”史根治说，许昌将突出抓好创新平台建设，将之打造成攻关攻坚的“桥头堡”、引才育才的“磁力场”，为创新强市建设提供重要支撑。', '“楼上创新、楼下创业；上午研发、下午孵化。”在赶往机场的路上，代表团成员、三门峡市委书记范付中仍在咂摸深圳先进技术研究院的“创新创业综合体”经验。“深圳的创新氛围之浓，新技术新模式新业态之多，让我们大开眼界。”他表示，创新的重要性大家都知道，关键在于敢不敢想、会不会想、善不善想。下一步，三门峡将深入推动“基础研究—技术攻关—技术应用—成果产业化”全过程衔接，加快建立创新创业联合体，促进产学研用深度融合，打造一流创新生态，着力建设创新高地。', '“一流的人才塑造一流的企业，一流的企业锻造一流的产业。”谈到在深圳学习考察的感悟，代表团成员、航空港区管委会主任田海涛这样说。他表示，航空港区承担着省委、省政府给予的建设先进制造业高地重大使命任务，汇聚创新人才、夯实创新支撑是必由之路。“我们将加强顶层设计，构建更加开放的引才、育才机制，完善更高水平的留才、兴才保障，营造更加浓厚的重才、爱才氛围，加快打造郑州都市圈核心增长极和现代化、国际化、世界级物流枢纽。”（记者 归欣 冯芸）']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>154</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>论学习贯彻习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-09-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-26/956077.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['努力构筑全国重要的文化高地 ——六论学习贯彻习近平总书记考察调研河南时重要讲话精神', '文化是一个国家、一个民族的灵魂。习近平总书记考察调研河南时强调，要推动文化繁荣兴盛，“传承、创新、发展优秀传统文化”“推进媒体融合向纵深发展、建设全媒体”。总书记的重要指示，高屋建瓴、内涵深刻，是做好我省文化建设的根本遵循和行动指南。', '没有高度的文化自信，没有文化的繁荣兴盛，就没有中华民族伟大复兴。中国特色社会主义文化，源自于中华民族五千多年文明历史所孕育的中华优秀传统文化，熔铸于党领导人民在革命、建设、改革中创造的革命文化和社会主义先进文化，植根于中国特色社会主义伟大实践。坚定中国特色社会主义道路自信、理论自信、制度自信，说到底就是要坚定文化自信。', '“伸手一摸就是春秋文化，两脚一踩就是秦砖汉瓦”。中原大地文脉昌盛，这里有“古色”的深厚底蕴，中国古代四大发明从这里走向世界，老子、庄子、墨子、韩非子等文化巨匠的思想在这里交相辉映；这里有“红色”的激情岁月，二七大罢工把我们党领导的第一次工人运动推向高潮，鄂豫皖苏区开辟了坚实的革命基地；这里有“金色”的精神丰碑，焦裕禄精神、红旗渠精神、大别山精神在这里孕育传承，亿万中原儿女绘就了一张张金光灿灿、光耀神州的英雄图谱。同时也应看到，我省文化建设发展与时代要求和人民需要相比仍有差距，坚定文化自信，加快优秀传统文化创造性转化、创新性发展，努力构筑全国重要的文化高地，为中原更加出彩提供源源不断的精神动力，才能不负殷切嘱托，不辱时代使命。', '构筑全国重要的文化高地，就要守正创新。《大宋·东京梦华》《禅宗少林·音乐大典》擦亮河南文化名片，《焦裕禄》《重渡沟》等豫剧现代戏实现中国艺术节大奖“七连冠”、文华大奖“六连冠”，数字马街、数字太极、戏剧数字云播平台等新型文化业态项目风起云涌……不忘本来、吸收外来，才能更好地走向未来，我们要坚持从延续民族文化血脉中开拓前进，结合当今时代条件，培育新型文化业态，打造精品名作，不断铸就中原文化新辉煌。', '构筑全国重要的文化高地，就要守好阵地。国有企业开展“四个意识”专项教育，推动党的创新理论“飞入寻常百姓家”；全省报、刊、台、网、微、端同向发力，唱响党的声音……宣传思想阵地，我们不去占领，人家就会去占领，我们要严格落实意识形态工作责任制，旗帜鲜明坚持真理、批驳谬误，积极培育和践行社会主义核心价值观，不断扩大主流价值影响力版图，营造风清气正的网络空间，坚定广大群众一心一意跟党走的信心和决心。', '构筑全国重要的文化高地，就要加快融合。全媒体时代，舆论生态、媒体格局和传播方式深刻变化。我们要因势而谋、应势而动、顺势而为，把推动传统媒体和新兴媒体融合发展作为主攻方向，从相“加”迈向相“融”，从“你是你、我是我”到“你中有我、我中有你”“你就是我、我就是你”，实现各种媒介资源、生产要素有效整合，打造具有强大影响力、竞争力的新型主流媒体，推动宣传思想文化工作强起来，使一亿中原儿女在理想信念、价值理念、道德观念上紧紧团结在一起。', '时光刻录了中原文化光辉璀璨的过去，也必将见证中原大地文脉鼎盛的明天！（河南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>154</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>虞城县政协到我市考察学习委员之家建设工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s?__biz=MzI0MjMzMDI5MA==&amp;mid=2247668444&amp;idx=3&amp;sn=58173d212586cfca3cc3fc8eb4689bae&amp;chksm=e971ed01de0664172a183c5e01e6ec0d978f2bd6e16a15dea2767b039d49938580838a456755&amp;scene=126&amp;sessionid=1697760387#rd</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['10月18日，商丘市虞城县政协党组成员、副主席张志彦带队到我市考察学习政协“委员之家”建设工作。我市政协副主席杨荫阁陪同。', '考察组先后到政协经济界委员之家、长社办政协委员联络室、大周镇政协委员联络室，实地查看阵地建设情况，了解我市各“委员之家”“委员联络室”的组织架构、队伍组成，政协委员履职形式、考核方式等内容。', '我市政协扎实开展“政协委员履职能力提升行动”，搭建委员“大舞台”，打造履职“硬品牌”。目前，我市已建成20个“委员之家”、16个委员联络室，夯实履职根基，建立6项制度，强化委员履职管理，推动活动常态化。同时，市政协主席、副主席及各专委会建立“委员之家”“委员联络室”分包联系点，推进政协工作向基层延伸常态化，将政协工作推进在一线、力量下沉到一线。', '考察组点赞我市畅通政协委员履职平台、创新履职方式、促进政协委员交流协商、推进工作高质量发展的成效。考察组表示，要借助此次考察学习，总结新经验，采取新措施，丰富新内容，提升“委员之家”建设标准，优化组织架构，进一步规范履职活动制度，更好推动委员“沉下去”、履职“实起来”，推动“委员之家”各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>154</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>七论学习贯彻习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2019-09-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-27/956359.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['让黄河成为造福人民的幸福河 ——七论学习贯彻习近平总书记考察调研河南时重要讲话精神', '“保护黄河是事关中华民族伟大复兴和永续发展的千秋大计”“推动黄河流域生态保护和高质量发展迈出新的更大步伐”。习近平总书记在我省考察调研时，专程调研黄河流域治理和生态保护，主持召开黄河流域生态保护和高质量发展座谈会并发表重要讲话，从中华民族伟大复兴千秋大计的战略高度，从区域协调发展的战略全局，从解决黄河生态和安澜的根本问题出发，为黄河保护和发展指路领航、把关定向。全省领导干部大会要求，要深刻领会习近平总书记关于加强黄河流域生态保护和高质量发展的重大要求，抓住机遇把黄河保护治理好。', '黄河是中华民族的母亲河。黄河绵延5000多公里，流域面积约75万平方公里，是我国重要的生态屏障和重要的经济地带，是打赢脱贫攻坚战的重要区域，在我国经济社会发展和生态安全方面具有十分重要的地位。“黄河宁，天下平”。新中国成立70年来，党领导人民创造了黄河岁岁安澜的历史奇迹，探索了人与自然和谐共生的治黄新实践。党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，提出了一系列明确要求，如今又专程到河南调研黄河流域治理和生态保护，主持召开黄河流域生态保护和高质量发展座谈会并发表重要讲话，为我们坚持共同抓好大保护、协同推进大治理提供了重要遵循，为加强黄河流域生态保护和高质量发展提供了科学的思想指引和行动指南，必将对更好治理保护黄河、让黄河造福人民产生深远影响。', '黄河为中原大地提供了源源不断的生命活水，增添了深远厚重的文化底蕴，中原儿女也对黄河有着特殊的情结，一直把黄河当作心灵之河、生命之河。同时，万里黄河险在河南，黄河河南段地处“豆腐腰”特殊地段，是闻名的“地上悬河”，历史上三分之二的黄河决口发生在河南，加强黄河治理保护是我们必须完成好的历史任务，推动黄河流域高质量发展也是我省迈向高质量发展的必然要求。我们要深入学习领会习近平总书记重要讲话精神，深入贯彻落实习近平生态文明思想，从政治、战略、全局的高度，认识保护黄河、治理黄河的重大意义，抢抓历史机遇，共同抓好大保护、协同推进大治理。', '治理黄河，重在保护，要在治理。要坚持专题研究、规划先行，组织开展重大专题研究，深入调研生态、文化、环境、经济等各方面的情况，发挥优势、突出特色，对上下游、干支流、左右岸进行整体布局、综合考虑。要坚持生态优先、重在保护，树立抓生态保护就是抓高质量发展的理念，把黄河建设成岸绿景美的生态河；实施滩区居民迁建工程，改善人居环境，保护滩区生态，落实防洪安全，从根本上解决滩区居民的防洪安全和安居问题。要坚持系统治理、长治久安，大力推进水资源节约集约利用，依法治理突出问题，切实做好防洪安全，建设绿色安全生命线。要坚持文化传承、绿色发展，积极打造华夏历史文明传承创新区，实施黄河文化旅游精品工程，全面启动黄河母亲地标复兴，以高端化、绿色化、智能化促进产业结构优化升级，把黄河建设成传承历史的文脉河、造福人民的幸福河。', '大河高歌东赴海，万仞嵩岳立天中。牢记习近平总书记殷切嘱托，在黄河流域生态保护和高质量发展上苦干实干，久久为功，我们一定能把黄河治理保护好，让母亲河永葆生机和活力。（河南日报评论员）']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>154</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>学经验重在力行三论我省党政代表团赴沪苏浙学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-11-25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/11-25/1907799.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['东风浩荡，中原帆满。紧跟习近平总书记步伐，我省党政代表团赴上海、奔江苏、看浙江，深入贯彻落实党的十九届五中全会精神，深度对接长三角一体化和长江经济带国家战略。如此大规模的学习考察活动，对河南来说并不多见。党的十九届五中全会擘画了美好蓝图，鼓舞人心、催人奋进，也让我们更加深刻地认识到，河南在国家大局中的地位愈加重要、责任愈加重大。下一个五年，河南怎么干？这是摆在我们面前现实而又紧迫的任务。对标先进地区，学习先进经验，主动融入国家战略，不仅是一次思想上的启迪、观念上的碰撞，更是发展所需、行动召唤。', '对于河南来说，这次赴沪苏浙学习考察，是一个好的开端，一路上，我们看到了差距、开阔了视野、学到了经验，树立起强烈的危机意识和改革决心。但光有认识还不够，只是“学到”还不行。考察回来怎么干？“学到”如何“用到”“用好”？最终都要体现在抓落实的具体工作中。', '我省党政代表团刚考察归来，省委常委会便迅速召开扩大会议，深入学习习近平总书记视察江苏、主持召开全面推动长江经济带发展座谈会和在浦东开发开放30周年庆祝大会上的重要讲话精神，听取关于我省党政代表团赴沪苏浙学习考察情况汇报等，研究贯彻落实意见。党政代表团乘坐的飞机一落地，大家纷纷拿出手机，在电话中安排，以各种形式把学习思考的成果及时传达下去。紧密而又充实的工作安排，“坐不住”“等不得”的学习心态，传递出时不我待、助推高质量发展的紧迫感。', '学以致用，重在消化吸收。经验一箩筐，一抓一大把，只有善于消化吸收，才能真正收到补充营养、增强体质的效果。要吸收长三角地区的先进理念、先进做法，并将之转化为工作成效。上海的优化营商环境从1.0版法治化、2.0版国际化向3.0版便利化推进；苏州工业园区不仅重视企业引进、提升产业链水平，还注重优化生态环境；浙江紧紧抓住数字经济这一新引擎，培植肥沃“土壤”，提供丰沛“雨水”，涵养了创新创业的“热带雨林”。直面差距，河南更须奋起直追。要强化创新驱动，打好关键核心技术攻坚战，不断提升产业能级和核心竞争力；强化开放带动，深入推进高水平制度型开放，增创国际合作和竞争新优势；强化改革推动，推进重要领域和关键环节改革，打造市场化、法治化、国际化的一流营商环境，提高城市治理现代化水平，激活高质量发展新动力。', '学以致用，重在久久为功。我省与沪苏浙三地发展同向、优势互补，在对接国家战略、深化产业合作、加强科技创新等方面，有着广阔的合作空间和潜力。此次代表团一行，共举办3场座谈会，签约133个项目，项目总投资额1751.88亿元，可谓硕果累累、满载而归。各地各部门要拿出持之以恒、常抓不懈的韧劲，建立台账、督促执行，一任接着一任干，一锤接着一锤敲，一个目标干到底，既要播下合作的“种子”，更要收获合作的“果实”。', '学以致用，重在解放思想。解放思想，是一个社会活力的来源。我们不仅要学习沪苏浙的经验做法，更要善于从经验做法中总结规律性认识。沪苏浙三地经济之所以“身强体壮”，最核心的秘诀就在于思想解放、敢闯敢拼。把学习考察成果转化为工作成效，我们必须来一场解放思想的深刻革命，在对接国家战略、融入新发展格局中抢抓机遇、创造机遇。', '好风东方起，拂面耳目新。相信这次党政代表团考察长三角之行，不仅激起一层涟漪，还能搅动一泓池水，让全省上下都行动起来，为全面建设现代化河南作出不懈努力！']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>154</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨投资河南正当时</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-12/2741448.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['“如果你想拥有未来，就要和代表未来的人在一起、代表未来的环境在一起、代表未来的省份在一起，我认为，那就是河南！”5月11日，豫粤合作交流会上，正威国际集团董事局主席王文银激情四溢的发言，引来现场热烈掌声。', '一家世界500强企业，为何坚定看好河南？“今天投资河南，有最好的天时、最好的地利、最好的人和。”王文银坦言。他进一步解释说，所谓天时，就是河南锚定“两个确保”、实施“十大战略”，加快建设现代化河南；所谓地利，就是河南大枢纽、大市场优势日益凸显；所谓人和，就是河南越来越好的市场化、法治化、国际化营商环境。“我们正威在河南深耕多年，愿意为‘天地之中’‘活力湾区’擘画更加美好的合作画卷贡献力量。”他说。', '“我的家乡在驻马店，诚挚邀请各位朋友到老家河南投资兴业。”广州鹏辉能源科技股份有限公司董事长夏信德的发言里，浸着浓浓的乡情。虽然离家多年，他一直情系乡梓，2013年回乡投资创业成立了河南鹏辉。在各级政府的大力支持下，企业快速成长为储能电池行业内最具竞争力、最专业的电池制造商之一。“10年间，我切身感受到了河南省各级领导的高度重视、无微不至的人文关怀、越来越优的营商环境。我们将积极配合河南开展招商引资工作，引荐更多关联企业到豫兴业，助力河南加快构建新能源产业链。”夏信德表示。', '河南省科学院重建重振加速推进，8家省实验室、25家省产业研究院、36家省中试基地、12家省创新联合体挂牌运行……这组交流会上公布的数据，让广东粤港澳大湾区国家纳米科技创新研究院副院长赵倩感到振奋。“我老家在济源，虽然常年在外工作，但对家乡的发展一直非常关注。”她说，对一个生于河南、长于河南的科技工作者而言，没有什么比看到创新发展成为家乡现代化建设的“主旋律、最强音”更值得欣慰。“我们将充分发挥自身优势，借力进一步深化豫粤合作的契机，为现代化河南建设奉献智慧和力量。”赵倩说。（记者 归欣 冯芸）', '广东省大湾区集成电路与系统应用研究院展厅内展示的集成电路芯片生产流程。记者 蔡迅翔 摄', '简介：广东省大湾区集成电路与系统应用研究院成立于2019年8月，以广州为中心，发挥香港、澳门开放窗口优势，汇聚创新资源，建设成为国家级集成电路创新中心。', '研究院主要面向行业创新发展实际需求，开展FDSOI关键技术、计算光刻等先导性技术研发，开展高端集成电路测试评估平台、EDA共性技术研发与服务平台、先进封装技术研发与服务平台三大平台建设与运营，开展面向新能源汽车等领域的高端核心芯片、微系统模块和系统级应用的关键技术研发，为广东省乃至大湾区高端芯片研发提供服务与支撑。通过科技成果转化，孵化、引进多家创新企业，打造国内一流的集成电路领域人才培养基地，支撑形成具有粤港澳大湾区特色的集成电路创新与产业集群。', '简介：广东粤港澳大湾区国家纳米科技创新研究院（下称“广纳院”）成立于2019年9月，由中国科学院院士、国家纳米科学中心主任赵宇亮担任院长。', '广纳院定位为国际一流的纳米技术转化基地，主要从事应用研究、技术开发和转移转化工作，建设重大基础设施，汇聚国际化高水平工程师队伍，专门服务纳米科技成果转化，整合国内外研究力量和产生一批世界领先的纳米科学成果，破解一批“卡脖子”科技难题，促进纳米科技成果转化。此外，广纳院聚焦打造微纳加工平台、纳米生物安全评价研究中心、国家纳米科技与产业大数据平台等重大基础服务平台，引进了30个高精尖项目。截至2022年年底，共有9个项目落地转化，孵化企业16家。', '简介：华为东莞园区项目始建于2015年，位于东莞市松山湖南区，北临一线湖景，碧波无垠，松湖花海，植被繁茂，坐拥绿色生态。总占地面积1900亩，分四期建设，可容纳2.5万人。项目总投资约100亿元人民币，使用功能包括研发中心、行政办公、会议中心等。', '简介：松山湖科学城位于东莞市中部，2001年启动建设，2020年7月被批准为大湾区综合性国家科学中心先行启动区。', '在创新研发方面，松山湖科学城拥有全国唯一、全球第四座脉冲散裂中子源；与北大、清华、复旦等高校共建30家新型研发机构 在人才集聚方=面，吸引双聘院士19名、各类国家级人才84名，常年超过50位院士专家和400多位国内外知名科学家开展科学研究。依托三大市级战略性新兴产业基地，前瞻布局了智能制造、新材料、生物医药、新能源等战略性新兴产业，以华为为核心的新一代电子信息产业集群产值规模超千亿，初步构建形成了以战略性新兴产业企业和科技型企业为主体的先进制造业集群。（记者 马涛 张笑闻 整理）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>154</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>借得南风弄大潮河南省党政代表团赴广东湖北学习考察侧记</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-15/2742470.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['5月10日至13日，由省委书记楼阳生、省长王凯率领的河南省党政代表团赴广东省、湖北省学习考察。', '短短4天，代表团成员奔波于广州、东莞、深圳、武汉四地，大家一路看，一路议，创新驱动、绿色发展的思路越来越清晰，推动改革、促进开放的决心越来越坚定。', '广州人工智能与数字经济试验区核心片区琶洲，已引入腾讯、阿里巴巴、唯品会、小米、科大讯飞等39家人工智能与数字经济领军企业，2022年，营收已经突破4000亿元，整体产业效益高速增长。', '广州市委工作人员介绍，如今，广州已成为全国唯一拥有国家实验室、综合类国家技术创新中心、国家重大科技基础设施、国际大科学计划、国家未来产业科技园等“国字头”重大科技创新平台的城市。', '大院大所“头雁”领飞，科技企业加速落地。“广州海洋实验室参与完成的‘我国率先实现水平井钻采深海可燃冰’，广州实验室研发出新冠IgM抗体快速检测试剂盒，科研成果转化成为生产力的例子太多了。”该工作人员说，这就是科技创新的力量。', '“科技创新的主引擎、改革开放的主阵地，这才是真正高质量发展啊！”代表团成员、新乡市委书记李卫东一边连声赞叹，一边拍照记录，“这次学习考察，让我们看到了差距，更明确了方向。我们将持续深化开发区‘三化三制’改革，加快建设中原农谷。”', '在深圳，“6个90%”创新密码被广为称道，即90%以上的创新型企业是本土企业、90%以上的研发机构设立在企业、90%以上的研发人员集中在企业、90%以上的研发资金来源于企业、90%以上的职务发明专利出自企业、90%以上的重大科技项目发明专利来源于龙头企业。', '“楼上创新、楼下创业；上午研发、下午孵化。”在赶往机场的路上，代表团成员、三门峡市委书记范付中仍在咂摸深圳先进技术研究院的“创新创业综合体”经验。“深圳的创新氛围之浓，新技术新模式新业态之多，让我们大开眼界。”他表示，创新的重要性大家都知道，关键在于敢不敢想、会不会想、善不善想。', '代表团成员纷纷表示，从珠江之滨到松山湖畔，从科研院所到产业园区，创新发展的蓬勃生机催人奋进，既开阔了视野、找到了差距，更学到了方法、坚定了信心。', '在过去，“创都深圳”经历过回落，“厂都东莞”经历过失速，“老汉阳造”一度被市场抛弃。', '在每一次波折中，这些城市都坚定不移调整产业结构，实现“腾笼换鸟”，然后以一番新的风貌继续引领全国城市发展。', '当下，在深圳，腾讯、比亚迪、大疆等上百家高科技企业汇聚成“创新大道”，成为城市新名片；在东莞松山湖高新技术产业开发区，华为、宇龙通信、易事特、生益科技等一大批“科技创新+先进制造”总部企业再造“新东莞”；汉阳铁厂浓烟熏染的故地，蝶变成为我国汽车及零部件产业最集中的区域之一……以新换旧、以新补短，这些制造业“老重地”不断焕发新活力。', '在省科技厅副厅长刘英锋看来，东莞聚焦“科技创新+先进制造”，以大湾区综合性国家科学中心先行启动区建设为引领，加快实施创新驱动发展战略，为产业高质量发展提供了有力支撑，东莞发展的宝贵经验非常值得学习借鉴。', '“视觉上受到冲击，心灵上受到震撼，思想上有了感悟。”代表团成员、许昌市委书记史根治说，通过4天的学习考察，充分认识到许昌与先进地区的差距，也无可争议地证明了省委、省政府深入推进“十大战略”的科学性、前瞻性、正确性。', '传统利益格局致使不愿转，不具备知识能力不会转，体制机制约束不能转等难题，必须逐一攻克。', '我省坚持把发展经济的着力点放在实体经济上，在传统产业上高位嫁接，在新兴产业上抢滩占先，在未来产业上前瞻布局，推动短板产业补链、优势产业延链、传统产业升链、新兴产业建链。', '把“内陆思维”融入“湾区思维”，河南必将在转型升级的探索中凝聚强大合力，蹚出一条符合实际的新路子。', '河南与广东，一个是中部地区的发展中省份，具有资源、人力和市场等比较优势；一个是南部沿海的发达省份，具有资本、技术和管理等综合优势。', '河南与湖北，同属中部六省，同是制造业大省，一个力争在黄河流域生态保护和高质量发展中走在前列，一个努力建设长江经济带绿色崛起先行区。', '豫粤、豫鄂经济之间已是我中有你，你中有我，进一步携手发展，未来的合作空间与潜力更是无限。', '广东省委书记黄坤明表示，广东与河南虽然相距千里，但一直以来经贸合作密切、人员往来频密，形成了携手并进、互利共赢的好局面，这为两省在新征程上携手开展务实合作、实现更好发展提供了有利条件，创造了广阔空间。', '湖北省委书记王蒙徽希望两省交流合作不断走深走实，在共护“一库净水北送”、共推基础设施互联互通、共建区域一体化的产业链供应链、共享优质公共服务等方面进一步深化合作，为新时代推动中部地区高质量发展，为全面建设社会主义现代化国家作出新的更大贡献。', '5月10日下午，广东·河南两省工作座谈会在广州市举行，签署战略合作框架协议，共商两省携手合作发展。', '5月11日，豫粤合作交流会在广州市举行。河南省党政代表团与在粤的企业、科技、教育、商协会等各界知名人士相聚珠江之畔，共叙友谊、共商合作、共谋发展。交流会还举行了项目签约仪式，共有63个项目在现场签约，总投资920.8亿元，涵盖先进制造业、新能源、半导体、农产品深加工、科技创新、医疗卫生等多个领域。', '在代表团成员看来，这是一次主题教育之旅、一次思想破冰之旅、一次深化合作之旅。通过学习考察，我省广大干部开阔了视野眼界，更新了思想观念，激发了闯劲干劲，也必将把学习成果转化为推进中国式现代化建设河南实践的强大动力！（记者 逯彦萃 郭北晨）']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>154</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>豫论场丨让更多创新种子破土而出粤鄂学习考察看什么</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-12/2741441.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['打开小红书，搜索东莞最值得打卡的地方，许多人推荐了东莞八景之首——松山烟雨。湖光山色，孕育出的不仅是城市美景，还有更耀眼的创新名片——松山湖科学城。坐落于粤港澳大湾区腹地，高科技、新产业珠联璧合，“科技共山水一色”是松山湖科学城的鲜明标识。', '向南而行第二天，从广州到东莞，走进研究院、考察科研项目，河南省党政代表团开启的是一次创新之旅。打开卫星云图，松山湖科学城如今已建立起中国散裂中子源、松山湖材料实验室等国家大科学装置、一流平台，多所高等院校、数十家新型研发机构以及创新创业社区等一大批科学研究、人才培养、技术中试和产业化的平台基地。可以说，从决定原始创新能力的基础研究，到助力成果转化的孵化机构，松山湖科学城构建起了全链条、全过程的创新生态。', '松山湖科学城缘起中国散裂中子源这一“国之重器”。大科学装置是吸引人才的一块“磁石”，在它的带动下，各类创新要素不断涌入，一大批科技工作者来到这里大展拳脚，常年有超过50位院士专家和2000多位国内外知名科学家在此开展科学研究。如今，这里已成为全国第4座综合性国家科学中心，研发投入占GDP比重的15.28%，国家高新技术企业数量超过9000家……', '东莞，从曾经的“世界工厂”，到今天的大湾区“科创高地”，它的成功之处，不仅在于开办了多少大企业，增加了多少GDP，更在于创造了多少可复制推广的经验，找到了多少超越自我带动全局的发展路径。', '他山之石可以攻玉，对照先进，差距就是发展的机遇所在、空间所在。观松山湖科学城的发展历程，我们依稀可以窥见一座城创新创业的秘诀。今天的科技创新，不仅是技术的比拼，更是创新生态的较量。只有创新链上各个环节、要素高效协作，创新生态繁荣发展，才能实现科技创新的全面突破。', '将目光投回中原大地。在郑州，这里同样有一片创新的湖水——北龙湖，岸旁也坐落着城市的创新地标——中原科技城。这里是一块创新与人才双隆起的高地，也是一部超出物理空间概念的大科学装置，更是一座加速领跑带动未来发展的新城。', '重建重振河南省科学院，重构重塑省实验室体系，打造郑大和河大双航母，多家中试基地、产业研究院以及郑州技术交易市场建成运行……河南同样抢抓科技创新的关键要害，将研发投入、科技载体、创新主体、成果转化等创新链条上的每一个环节统筹考虑，推动科技创新能力的整体提升。', '感受改革开放先行地的阵阵创新之风，带回先进经验，培育创新沃土，更多“科创种子”将在中原大地破土而出、拔节生长。（河南日报评论员 于晴）']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>154</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨世界工厂如何升级创造基地</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-12/2741449.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['“世界工厂”“广东四小龙”“移民城市”……说起东莞，不少人停留在过去这些响亮的称号里。', '5月11日6：30，项目经理林学荣，已经在恒翼能松山湖新总部项目施工现场转了一遍。', '“到明年初，恒翼能松山湖新总部项目将全部建成投产，预计产值15亿元到20亿元。”广东恒翼能公司副总裁唐熙衡信心满满。', '与此同时，天域半导体生产中心项目提速开建，科学智汇城一期年底即将封顶，安美增资扩产项目验收倒计时，吉祥腾达项目已投产……', '“自从2013年华为落户东莞，引来了好多产业链相关企业。”东莞松山湖高新技术产业开发区管委会一名工作人员说，华为就像是一支先遣军，随后京东来了、阿里巴巴来了，还有宇龙通信、易事特、生益科技等一大批“科技创新+先进制造”总部型项目纷纷入驻。当前松山湖拥有1家产值超千亿企业、6家超百亿企业、23家超十亿企业。', '松山湖以智能机器人、电子信息、云计算、生物技术为代表的高技术产业发展态势非常强劲，7家企业成功上市、38家企业上市后备，21家企业入围“专精特新”。战略性新兴产业企业和科技型企业为主体的先进制造业集群在这里初现雏形。', '在业内人士看来，松山湖产业集群的崛起，让东莞摆脱了“三来一补”传统发展模式，成功实现了“腾笼换鸟”。', '“我们的研发人员、实验人员等员工工作和生活在舒适惬意的松山湖。”华为的一名工作人员自豪地说，现在这里已经成了“网红打卡地”。', '当下的东莞松山湖高新技术产业开发区，拥有226公里的生态绿道，绿化覆盖率超过60%，人均绿地面积是全国标准的6.8倍。', '建筑与绿水青山融为一体，工业文明与自然山水和谐相处。无论是东莞当地人，还是外来的科研人员，在工作之余都喜欢环湖跑跑步、遛遛弯、露营、休闲，享受这里湖水清澈、湖鸟轻鸣。', '15所中小学、17所幼儿园、39个医疗机构合理布局；华润万象汇、万科生活广场、佳纷天地、万科滨湖广场等知名商业项目已经落子；文化艺术街区、通湖礼廊景观二期、悦榕庄酒店、科学公园、跨湖通道等一批配套设施正加速建设。', '今年，市民中心搬来了，城市马拉松也来了……距离市中心约30公里的松山湖，已经成了东莞市的新中心。', '当地市民说，10年前东莞主要有两种人：本地人和打工人。现在东莞有三种人：本地人、科技人员、外国人，后两种人都“喝过不少墨水”！', '毕业于香港大学的博士胡传灯，来东莞创业4个年头。作为环波科技联合创始人，他与团队扎根电子陶瓷领域，目标是做中国的京瓷。“机缘巧合，我看重的是这里的生活环境和发展趋势。”他说。', '毕业于奥克兰大学的生物工程学博士谢智衡，瞄准的是骨科手术机器人。2015年，他带着创业团队从香港搬到深圳，又在2019年从深圳落户东莞。“我们产品所涉及的外壳、支架等都在东莞，看上了这里的供应链优势。”', '这里拥有全国唯一、全球第四座脉冲散裂中子源；建成了省实验室松山湖材料实验室；与北大、清华、复旦等共建了30家新型研发机构……“粤港澳大湾区科技创新论坛”永久落户，连续四年举办粤港澳院士峰会、华为开发者大会，成功举办松山湖科学会议、复合材料科技峰会等有全国影响力的科技活动。', '如今这里集聚了双聘院士19名、各类国家级人才84名，常年超过50位院士专家和400多位国内外知名科学家在东莞开展科学研究。', '东莞市委副书记、松山湖党工委书记刘炜表示，东莞坚定不移地走科技创新带动产业和城市转型升级的发展路径。', '广东粤港澳大湾区国家纳米科技创新研究院内，纳米技术应用于现代农业场景。本组图片均为记者 许俊文 摄']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>154</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>对标先进启迪深二论我省党政代表团赴沪苏浙学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020-11-24</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/11-24/1907264.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['对标先进学经验，锚定目标谋发展。作为深入贯彻党的十九届五中全会精神的务实举措，我省党政代表团赴沪苏浙学习考察，目的明确，收获满满。6天3省市，集中而密集的行程反映了代表团此行的重点。在上海瞻仰中共一大会址，赴浙江嘉兴瞻仰南湖红船，重温党的历史，接受初心教育，砥砺奋斗精神。每到一地，代表团都要举行战略合作签约、项目交流合作等一系列政务商务活动，与当地知名企业家和院校负责人举行见面会，实地探访知名企业、金融科创机构等，既开拓了视野，又深化了合作。', '一路学习，一路思考，沪苏浙传承红色基因、加速融入“双循环”新发展格局、自主创新培育新经济等一系列扎实举措，给我省党政代表团留下深刻印象，启迪着我们见贤思齐，深入贯彻新发展理念，在新发展阶段拉高标杆，在畅通“双循环”中找准着力点、突破口，在现代化河南建设新征程上奋勇争先，再创佳绩。', '启迪一：传承红色基因，砥砺奋斗精神。上海市兴业路76号，隐藏在居民区普通的石库门建筑，成为中国共产党创业的起点，折射着百折不挠的奋斗精神，留下了为中国人民谋幸福、为中华民族谋复兴的百年启示。对先辈们每一次仰望，都是一次精神的洗礼；每一次追忆，都是一次思想的“充电”。时代不同，但理想信仰不变，奋斗的精神内核不变。我省党政代表团瞻仰中共一大会址、南湖红船，目睹浦东三十年的沧桑巨变，对中国共产党的初心使命领悟更加深刻，为河南一亿人民群众谋幸福的责任感使命感更加强烈。新时代新征程，广大党员干部要进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，勇于担当、奋发有为，时刻聆听“石库门”的启迪，以实干浇筑梦想，以奋斗创造美好生活。', '启迪二：对接国家战略，主动融入新发展格局。近日，习近平总书记先后赴上海、江苏等地考察。在上海，习近平总书记强调“努力成为国内大循环的中心节点和国内国际双循环的战略链接”。习近平总书记在江苏考察时强调，着力在改革创新、推动高质量发展上争当表率，在服务全国构建新发展格局上争做示范。上海向外开放与世界接轨，向内开放拉动长江经济带区域协调发展；江苏以省内循环为牵引，支撑国内循环、推动东亚循环、促进国际循环；浙江内外双修，充分激发内需市场，发力数字经济等新领域……沪苏浙在构建“双循环”新发展格局上各具特色。河南消费市场广阔、人力资源丰富、产业体系完备，是全国重要的综合交通枢纽和商贸物流中心，与兄弟省份合作空间广阔、潜力巨大。我们当开展全方位、多领域的合作，在对接国家战略中抢抓机遇、加快发展，在主动融入“双循环”中优势互补、互利共赢，共创新时代合作新局面。', '启迪三：坚持创新驱动，走高质量发展之路。这次沪苏浙之行，对科研创新的学习考察也是一大特色。在上海，长三角G60科创走廊规划展示馆集中展示“多城协同”产学研合作成果，一体化让创新无缝对接；在江苏，苏州生物医药产业园打造开放创新平台，构筑“众创+孵化+加速+产业园”链条式模式；在杭州，城市大脑运营指挥中心覆盖交通、医疗、旅游、健康11大系统48个应用场景，日均协同数据2亿余次，数字杭州不仅是发展引擎、经济形态，更是生活方式、治理能力……对比先进地区，无论在行业规模还是在创新能力上，河南的差距都还不小。我们唯有只争朝夕、快马加鞭，学习先进理念、运营模式、服务意识，吸引更多创新人才扎根中原，才能迎来属于自己的高光时刻。', '毛泽东同志曾指出，有了学问，好比站在山上，可以看到很远很多东西。从先进经验中汲取智慧，拉高标杆，奋楫前行，我们就一定能挺立潮头实现更大发展。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>154</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>河南省党政代表团到新疆考察学习陈全国王国生参加活动</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-08-17</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2018/08-17/687130.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['河南省党政代表团到新疆考察学习 坚决落实以习近平同志为核心的党中央治疆方略 把对口援疆工作做得更加扎实有效 陈全国王国生雪克来提·扎克尔孙金龙参加活动', '为深入贯彻习近平总书记关于新疆工作的重要讲话和指示精神，坚决落实以习近平同志为核心的党中央治疆方略，进一步推动对口援疆工作，8月14日至16日，河南省党政代表团到新疆考察学习。新疆维吾尔自治区党委书记陈全国，河南省委书记王国生，自治区党委副书记、自治区主席雪克来提·扎克尔，自治区党委副书记、新疆生产建设兵团政委孙金龙参加有关活动。', '14日下午，河南省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会在乌鲁木齐召开。陈全国代表自治区党委、政府及全区各族人民对河南省党政代表团表示热烈欢迎，对河南省长期以来给予新疆工作的大力支持和无私支援表示衷心感谢。陈全国说，河南省委、省政府坚持以习近平总书记视察指导河南时的重要讲话为统领，深入贯彻“四个着力”，持续打好“四张牌”，在让中原更加出彩的进程中迈出了坚实的步伐，取得了令人瞩目的新成就，创造了许多值得学习的好经验。', '陈全国指出，河南始终牢记习近平总书记嘱托，将援疆工作作为一项重要政治责任，摆在重要位置、纳入全局工作，助力精准脱贫攻坚、扎实推进产业援疆、提升教育卫生水平、强化基层基础建设，增进了两省区人民的深厚情谊，为新疆社会稳定和长治久安作出了重要贡献。新疆各族干部群众永远铭记在心。陈全国表示，在以习近平同志为核心的党中央坚强领导下，自治区党委和政府团结带领全区各族干部群众，坚决贯彻以习近平同志为核心的党中央治疆方略，推动稳定发展各项工作取得了新的进步，呈现出大局稳定、形势可控、趋势向好的态势。我们将以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大和十九届二中、三中全会精神，牢固树立“四个意识”，坚定“四个自信”，充分发挥援疆优势，学习借鉴河南先进经验，全力维护新疆社会和谐稳定，深入贯彻新发展理念，坚决打好三大攻坚战，推动经济高质量发展，切实把以习近平同志为核心的党中央的特殊关怀、河南人民的无私支援，转化为实现社会稳定和长治久安总目标的强大动力，努力建设团结和谐、繁荣富裕、文明进步、安居乐业的中国特色社会主义新疆。', '王国生说，新疆维吾尔自治区党委、政府带领各族干部群众，坚定贯彻以习近平同志为核心的党中央治疆方略，聚焦社会稳定和长治久安的总目标，推动新疆稳定发展取得了重大成就，也为我们做好河南工作提供了宝贵经验。这次考察学习，让我们看到了习近平新时代中国特色社会主义思想和党的十九大精神在新疆的生动实践、以习近平同志为核心的党中央治疆方略在新疆取得的重要成果，真切感受到了自治区党委、政府树牢“四个意识”、做到“两个维护”的高度政治自觉和行动自觉，自治区推进治理体系和治理能力现代化的有效探索，新疆广大干部群众在推动稳定发展中展现出的务实高效工作作风，接受了一次爱党爱国爱人民的深刻教育、一次总体国家安全观的深刻教育、一次新发展理念的深刻教育。', '王国生说，习近平总书记强调做好新疆工作是全党全国的大事，强调对口援疆是国家战略必须长期坚持，这都为我们做好援疆工作提供了根本遵循。近年来，在对口支援工作中豫新两地人民的感情不断加深，凝聚了同心共筑中国梦的磅礴力量。我们一定要从树牢“四个意识”、落实“两个维护”的政治高度，进一步增强做好援疆工作的政治责任感、历史使命感，围绕实现新疆社会稳定和长治久安的总目标，进一步把对口援疆工作往深里做、往实里做、往心里做，不断提高工作质量和水平。', '座谈会上，雪克来提·扎克尔、孙金龙介绍了自治区、生产建设兵团稳定发展和对口支援工作情况，河南省委常委、常务副省长黄强介绍了河南省经济社会发展及援疆工作情况。', '考察中，陈全国、王国生、孙金龙等参观了自治区博物馆，深入到哈密市新疆唱歌的果食品有限公司、豫新能源产业研究院、哈密市伊州区西河街道中阿牙村、便民警务服务站和兵团第十三师红星中学等，考察对口支援项目，走进民族兄弟家中，与自治区和兵团干部群众亲切交流。', '15日下午，在河南对口援疆受援地哈密市举行了河南·哈密市及兵团第十三师对口支援工作座谈会。据介绍，新一轮对口援疆以来，我省先后选派615名援疆干部人才，组织实施161个援疆项目，投入援疆资金34.29亿元，在助力哈密市、新疆生产建设兵团第十三师脱贫攻坚、产业发展以及文化教育、医疗卫生等社会事业发展上作出了积极贡献，受到受援地党委、政府和干部群众的肯定。座谈会后，河南省援疆办、河南能源化工集团有限公司、河南省文化援疆领导小组、河南省卫计委与哈密市、兵团第十三师签署了脱贫攻坚、产业援疆、文化援疆、医疗援助等对口支援合作框架协议。', '考察期间，陈全国、王国生、孙金龙等看望慰问了河南第九批援疆干部人才，了解他们工作生活情况，对他们为促进新疆社会稳定和长治久安付出的努力、取得的成效表示肯定。王国生说，援疆工作是我们必须履行好的重要政治任务，援疆干部要把总书记的要求牢记心中，把新疆哈密当家乡，把各族群众当亲人，用真心真情做好工作，团结各族群众感党恩、听党话、跟党走。在会见新疆河南商会代表时，王国生勉励他们要把在新疆的企业带动起来，在促进新疆稳定发展中争做出彩河南人。', '河南省领导穆为民、谢玉安，自治区及兵团领导沙尔合提·阿汗、张春林、彭家瑞、李学军、芒力克·斯依提、程振山、刘建新、李冀东等参加上述活动。（记者 朱殿勇）']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>154</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>豫乘南风好扬帆河南省党政代表团赴广东湖北学习考察纪行</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-15/2742477.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月11日，代表团在广东粤港澳大湾区国家纳米科技创新研究院了解纳米技术在市场上的应用情况。', '中科院深圳先进技术研究院展厅内，“四个面向”“四个率先”标语醒目（5月12日摄）。', '5月11日，代表团在广东粤港澳大湾区国家纳米科技创新研究院了解纳米产业的发展方向。', '4天时间、2个省份、4座城市、近20个学习考察点……5月10日至13日，河南省党政代表团赴广东、湖北两省学习考察。广州、东莞、深圳、武汉4个城市敢想敢干、敢为人先的拼劲，勇于创新、勇立潮头的闯劲，让代表团成员感触颇深、受益匪浅。一路学习、一路思考、一路讨论，大家纷纷表示，要对标先进找差距，认真谋划抓落实，尽快把学习成果转化为推进现代化河南建设的思路举措和具体行动。', '这是一次主题教育之旅。在全国上下认真贯彻落实党的二十大精神、深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育之际，代表团到两省学习考察，实地感受习近平新时代中国特色社会主义思想在广东、湖北的生动实践和丰硕成果，从中更加深刻感悟思想伟力、汲取真理力量，激发出建设现代化河南的澎湃动力。', '这是一次思想破冰之旅。广东是改革开放的排头兵、先行地、实验区，始终开风气之先、领时代之新，“春天的故事”越写越精彩。湖北是长江经济带、促进中部地区崛起等多个国家战略的交汇地和承载地，经历大战“疫”后浴火重生、再创辉煌。两省在对外开放、深化改革、科技创新、产业招引、人才引育等方面的成功经验，让代表团成员思想受到洗礼、精神受到震撼，深感必须以思想之变引领发展之变。', '这是一次深化合作之旅。豫粤两地是“远亲”，发展互补性强、关联度高；豫鄂两省是“近邻”，山水相连、人文相亲、经济相融。亲戚越走越近，邻居越走越亲。举办工作座谈会、合作交流会、签署战略合作框架协议……这一趟，代表团行程满满、收获满满，把合作向更高水平、更深层次、更宽领域拓展。', '从黄河岸边到珠江之畔、再到长江之滨，风从南方来，中原潮正涌，乘风破浪、披荆斩棘，河南必将谱写新时代中原更加出彩的绚丽篇章（记者 马涛 图片均为河南日报社全媒体记者 许俊文 摄）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>154</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨创都深圳如何续写春天故事</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-13/2742238.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['从昔日落后的边陲农业县，到今日世界著名的现代化大都市；从粤港澳大湾区核心引擎之一，到创建社会主义现代化强国的城市范例……40多年来，深圳敢闯敢试、敢为人先、埋头苦干，成为“创客之都”“创新之城”，演绎出一个又一个“春天的故事”。', '沿深圳大沙河而下，腾讯、中兴、大疆等上百家高科技企业汇聚成“创新大道”，串联起粤海街道、大学城、深圳湾超级总部基地等城市“创新名片”。', '4月，深圳大疆创新科技有限公司正式推出为专业影像创作者打造的全新影视航拍无人机Inspire3，作为世界首款一体化8K全画幅空中电影机，迅速引发影视圈关注。', '这家拥有专利近1.9万件，销售与服务网络覆盖全球100多个国家和地区的创新企业，只有17岁。', '比亚迪新能源汽车4月销量达到21.03万辆，较去年同期增长98.3%。今年前4个月出口量逼近去年全年。抢抓新能源汽车“风口”，比亚迪以技术创新“卷动”全球乘用车市场，带动深圳新能源产业形成强劲发展动能。', '去年，深圳出台实施“20+8”战略性新兴产业集群和未来产业行动计划。市域面积本就十分紧张的深圳，拿出15%的土地，规划建设总面积300平方公里左右的20个先进制造业园区，为战略性新兴产业和未来产业发展提供坚实的空间保障。', '“这不仅显示出深圳坚持制造业立市‘强基’的决心，也对深圳实现科技自立自强具有重要作用。”深圳市建设中国特色社会主义先行示范区研究中心副主任谭刚说。', '“对于从事基础研究的科学家而言，指引他们实现‘从0到1’突破的，往往是‘好奇心’而非‘功利心’。”中国科学院院士、南方科技大学校长薛其坤说。', '南方科技大学得益于深圳灵活的政策，不断优化调整科研模式和人才培养模式。在稳定宽容、鼓励“坐冷板凳”的工作氛围中，学校3月连续6项新突破分别被《自然》《科学》等国际顶尖期刊选用发表。', '走进中国科学院深圳先进技术研究院“楼上楼下创新创业综合体”，“穿白大褂的”和“穿西装的”工作在一栋楼里，科研和产业“两双巨手”紧紧握在一起，打破空间限制，极大缩短从原始创新到产业转化周期。', '建市之初，大学、科研院所数量都是“零”，科技资源“一穷二白”。从建设“高校改革试验田”的南方科技大学，到推进“产学研资”深度融合，深圳为科研提供后顾无忧的制度保障，可谓将“求贤若渴”明晃晃打到了公屏上。', '“栽下梧桐树，引得凤凰来”。如今，深圳科研人员数量增速全国领先，从2018年的1.83万人增长至2022年的5.45万人，复合年均增长率达到31.4%，人均学术产出效率以及人均高影响力科研成果产出居全国之首。', '“深爱人才、圳等你来”。这是一句在深圳深入人心的口号，也是深圳营造人才发展“好环境”的胸怀与承诺。', '绿意盎然的前海石公园，矗立着一块宛如“扬帆启航”造型、镌刻有“前海”两个大字的巨石。', '昔日的滩涂，随着前海深港现代服务业合作区建设，如今已是一派勃勃生机，200多座拔地而起的高楼不断改变着城市天际线……', '近日，首批境外购汇业务在深圳前海落地，这是十年来跨境人民币进口贸易结算的重大突破。', '“跨境购汇业务开通后，企业可充分利用境内外两个市场两个汇率，锁定汇率风险，节省汇兑成本。”深圳市栗马智慧管理有限公司相关负责人表示。', '“前海金融30条”落地实施、深港国际法务区建设稳步推进、前海桂湾金融先导区人才云集……前海作为“特区中的特区”，坚持“吃改革饭、走开放路”，活力不断涌动。', '新推出制度创新成果155项、累计765项，全国复制推广累计达72项，制度创新指数居全国第一；', '世界500强企业已在前海布局超300家，安盛、瑞银、西门子、帝亚吉欧等一大批优质企业加速集聚……', '“坚持依托香港、服务内地、面向世界，推动出台新一轮前海总体发展规划和国土空间规划，深化与港澳服务贸易自由化，打造全面深化改革创新试验平台和高水平对外开放门户枢纽。”今年的深圳市政府工作报告中，“前海”作为“高频词”出现了19次。', '深圳，我国改革开放的开篇杰作；深圳前海，改革开放再出发的重要见证，在更高起点上，让经济特区发展的脚步更加坚定有力。（记者 郭北晨 逯彦萃）']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>154</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨新武汉造如何完成转型升级</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-05-14</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-14/2742357.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['从钢铁到汽车，从汽车到光纤，从光纤到芯片……如今，武汉在科技上自立自强，“新武汉造”产业集群竞相聚集抢滩，成为武汉复兴的“城之重器”。', '百年前，汉阳铁厂的第一炉钢水，开启了中国近现代钢铁工业征程；新中国成立后，武钢武重等一大批“武字头”制造企业对新中国的建设发展贡献了重要力量。然而，在市场经济大潮下，武汉逐渐边缘化，“大武汉”盛名难副。', '走进武昌船舶重工集团智能无人生产车间，一根原始状态的管子毛坯，经历自动出库、自动切割定长、自动修整打磨、自动标识移植、自动装配焊接……短短几分钟，就成为可以直接上船安装的特种成品管件。', '这家近“90岁”的老船厂，率先开启我国船舶海工领域智能制造，获评国家级“智能制造示范工厂”，更赢得了实实在在的效益。', '汉阳铁厂浓烟熏染的故地，现在成为我国汽车及零部件产业最集中的区域之一。以东风汽车集团为龙头的6家整车厂，20家汽车相关研发机构，180家汽车零部件企业持续发力。', '武汉钢铁强化产学研结合，3年累计形成各级科技成果108项，技术创新带来的技术成本减降达6亿元/年，被认定为国家高新技术企业。', '武汉华工激光工程有限责任公司展厅内的激光焊接车体。（河南日报社全媒体记者 许俊文 摄）', '“嫦娥”奔月、“北斗”指路、“鲲龙”遨游……新时代中国科技创新勇立潮头，这些令世人瞩目的大国重器，背后都离不开光电子的鼎力支持。', '中国光电子，武汉独树一帜。这里的“中国光谷”诞生过我国第一根石英光纤、建成了我国第一个光电传输系统。', '千里之外，贵州大山深处的国之重器——FAST“中国天眼”，核心部件、保障海量天文观测数据传输的“视神经”动光缆，正是由中国信科集团旗下烽火通信研发而成。', '为感谢烽火通信的突出贡献，国家天文台将中国科学家此前发现的第121547号小行星永久命名为“烽火通信星”。', '坚持创新、不断攻克关键核心技术，截至2023年3月底，中国信科集团专利墙上，37343件全球申请专利中，发明专利超过90%，累计荣获国家级、省部级的科技奖项100多项。', '针对汽车行业出现的“芯片荒”，烽火通信与东风汽车集团联合成立“车规级芯片联合实验室”，共同打造高可靠性的汽车芯片产品和车规级芯片的技术生态。', '中国信科、长飞光纤、华工激光、锐科激光等多家企业，在新一代信息技术、光纤光缆等相关领域，已经拥有国际标准话语权。', '“中国光谷”成为全球最大光纤光缆研发制造基地、中小尺寸显示面板产业基地，全速奔赴“世界光谷”新征程。', '长江两岸，霓虹闪耀。江上乘游船赏景看戏、黄鹤楼沉浸游玩；楚河汉街集市上淘精致小物，万松园品尝可口美食……', '从“英雄之城”“工业重镇”，到如今的“旅游名城”，武汉向全国人民展示了“不一样”的气质。', '爆火出圈，离不开“聚优势、做创新”。除充分释放夜间游、红色游、乡村游、美食游等特色旅游魅力之外，“五一”假期，武汉还尝试走了一条“新潮”的道路——', '通过“游戏IP+游戏科技”与地方文化相结合，举办“2023武汉数字漫游节暨TGC腾讯游戏超级世界”线下活动，在广纳八方客、促进文旅消费增长的同时，为本地数字创意产业发展增添活力。', '尝到文旅融合带来的“甜头”，武汉、黄石、鄂州、黄冈、孝感、咸宁、仙桃、潜江、天门9市签订《文化和旅游一体化发展战略协议》，优化区域文旅资源配置，推动武汉都市圈文化旅游高质量发展。', '“武汉都市圈是长江经济带的重要支撑，此次战略协议签订创造了新契机，以武汉为龙头、发挥好其他8个城市支点作用，共同打造长江旅游黄金带核心区。”长江经济带高质量发展智库联盟秘书长秦尊文认为。', '挺起制造“硬实力”，打造文旅“软支撑”……路走对了，就不怕远。“新武汉造”以只争朝夕的方式，正浓墨重彩地书写着转型发展的新传奇。（记者 郭北晨 逯彦萃）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>154</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>学首都标杆谋豫来豫好河南省党政代表团赴北京学习考察盘点</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-12-21</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/12-21/2003671.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['深入贯彻落实党的十九届五中全会精神，谋划推动“十四五”发展，学习借鉴先进地区发展经验，中原以时不我待的姿态再次出发。12月19日，中央经济工作会议刚刚结束，河南省党政代表团立即开启在京学习考察活动，深化两地合作，深度对接京津冀协同发展战略。', '代表团一路行来，进展厅、访企业、看项目，学经验、悟理念、话合作，感触良多，收获满满。见贤思齐学经验，问道京“师”找差距，加快融入“双循环”新发展格局，我省在现代化河南建设新征程上再创佳绩。', '严冬时节，首都涌动着转型发展的热潮。代表团先后来到北京城市副中心规划展厅、千年城市守望林、中关村智造大街考察学习，认真了解城市建设、绿色发展、创新驱动等情况。', '北京城市副中心规划展厅里，沙盘模型前代表团成员凝神倾听讲解。北京科学疏解非首都功能，把副中心作为京津冀协同发展的桥头堡加快建设，一座正在崛起的魅力新城，也彰显着北京扛起服务国家重大战略的使命担当。', '北京的科学规划、精细化管理水平，也引起代表团成员的极大关注。未来的副中心，因地制宜配置各项设施，强化组团式发展，出门见绿、起步闻香，智慧城市建设赋能，舒适宜居的现代都市令人向往。', '冬日的千年城市守望林，鸟鸣林幽、空气清新，让代表团实地感受到“蓝绿交织、林水相依”的生态建设成果，青山绿水蓝天正成为大国首都底色。', '中关村智造大街原来满是宾馆、饭店，现在已华丽转身，成为高端智能新地标。展厅里一个个炫酷智能产品，不时引得代表团成员驻足观看，详细询问。2016年运营以来，这里累计为京津冀地区企业服务超过4万家次，形成服务案例超过5000项。', '一个个场景、项目，折射着这座伟大城市的转型步伐，北京更加突出创新发展、绿色发展、区域协调发展的成就，也让代表团成员感受到震撼和启迪。', '北京把扎实推动高质量发展作为根本要求，全面贯彻新发展理念，确定“四个中心”的首都城市战略定位、建设国际一流的和谐宜居之都的目标，深入推进京津冀协同发展战略、强化科技创新赋能，加快建设现代化经济体系，探索构建新发展格局的有效路径。', '“北京是贯彻新发展理念、推动高质量发展的标杆，正在发生深刻转型，让人深感震撼、深受触动，真切感受到了差距和不足。”代表团成员、许昌市委书记胡五岳说。', '北京充分发挥创新资源优势，创新生态充满活力，正在从全国科创中心向国际科技创新中心迈进。与北京相比，技术、人才等创新资源是我省短板，代表团成员纷纷表示，要在引进人才上加大力度，打破体制机制障碍，培育自身优良创新生态。', '北京积极服务国家重大战略，推进京津冀协同发展，促进了区域优势互补，加快了生产要素自由流动和优化配置。代表团成员不时交流探讨，我省如何服务融入黄河流域生态保护和高质量发展等国家战略，加快推进郑州、洛阳两大都市圈建设。', '学习给人启迪，差距激发动力，补齐短板时不我待。北京之行，学习与谋划有机衔接，心动与行动紧紧相连。', '一泓碧水，把首都和中原紧紧连在一起，两地交流交往日益密切。近年来，两地实施对口协作项目424个，在先进制造业、新能源新材料、生物医药、文旅等领域实施合作项目超过1.7万个。', '此次考察学习，还举行了北京市·河南省战略合作座谈会，签署了战略合作协议，双方将在南水北调、生态环保、科技创新、产业转移、文化旅游、教育医疗等领域开展更高层次、更广空间的合作交流。', '“高层次人才特别是创新型人才是北京的最大优势，也是我省在新发展阶段实现高质量发展的明显短板。”代表团成员、省人社厅厅长刘世伟认为，“十四五”期间，我省将持续加大政策支持力度吸引人才，与北京在该领域合作空间非常广阔。', '代表团成员、省商务厅厅长马健认为，北京在科技创新、人才集聚等方面“得天独厚”，河南区位交通、市场规模等优势明显，两地有着优势互补、融合发展的良好合作基础。', '丹江水不舍昼夜，新时代战鼓催征，京豫交流合作会像一渠清水那样，永续发展、绵延不断。（记者 张海涛 归欣）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>154</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨于先行地深处探开发区真经</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-11/2740794.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['珠江穿过广州市区。作为新中国改革开放的先行地，广州这座现代之城始终屹立潮头。新华社发', '“我们以全市6.5%的土地面积，创造了40%的工业产值，多项核心指标列全国经开区第一。”5月10日，河南省党政代表团到广州实验室学习考察，在钟南山院士揭开实验室“神秘面纱”之前，黄埔区广州开发区的负责同志“借台唱戏”，用一组PPT甩出高光数据，给远道而来的河南朋友们“上了一课”。', '“广州实体经济的主战场、科技创新的主引擎、改革开放的主阵地，这才是真正高质量的开发区啊！”代表团成员、新乡市委书记李卫东一边连声赞叹，一边拍照记录。他表示，把开发区打造成经济发展的主战场、主引擎、主阵地，是省委、省政府的重大决策部署，也是新乡的努力目标。“这次学习考察，让我们看到了差距，更明确了方向，我们将持续深化开发区‘三化三制’改革，加快建设中原农谷，持续提升长垣开发区等建设水平，为全省发展大局多作贡献。”李卫东说。', '“一个区设开发区，有绿色能源、新型显示等5个千亿级产业集群，高端装备、生物技术等8个五百亿级产业集群，战略性新兴产业产值超过GDP一半，谁看了不震撼？”代表团成员、焦作市委书记葛巧红告诉记者。谈到感悟，她认为有两点最深刻。“一是要按照省委、省政府部署要求，立足焦作特色优势，毫不动摇走好实体经济之路，做强做优做大能源化工、先进金属材料、光电信息等主导产业，加快构建以实体经济为支撑的现代化产业体系。”葛巧红说，“二是要持续深化创新驱动，加大科技投入强度，最大程度激发创新活力。”', '有人看到了“心无旁骛兴实业”，也有人看到了“力尽所能优环境”。代表团成员、鹤壁市委书记马富国查了查广州开发区的“前世今生”，很快被一句高赞评论吸引：“离成功最近的地方。”“人家的营商环境有多好，可想而知。”他说，近年来，鹤壁在优化营商环境上下了很大功夫，也探索出“服务管家”等经验做法，但跟广州相比，差距仍然不小。“我们将对标先进地区，把服务企业作为看家本领持续提升，努力做到出手必出色、完成必完美，全力打造市场化、法治化、国际化的一流营商环境。”马富国表示。（记者 归欣 冯芸）', '简介：中国南方航空集团有限公司是中国运输飞机最多、航线网络最发达、年客运量最大的航空公司，是全球第一家同时运营空客A380和波音787的航空公司。南航航线数量、航班频率、市场份额均在国内航空公司中居于首位，已成为中国与沿线国家和地区航空互联互通的主力军。近年来，南航全力打造广州、北京两个核心枢纽，南航广州枢纽已成为中国大陆至大洋洲、东南亚的第一门户。目前，广州与国内、东南亚主要城市形成了“4小时航空交通圈”，与全球主要城市形成了“12小时航空交通圈”。同时，南航保持着中国航空公司最好的安全纪录，安全管理水平处于国际领先地位。2018年6月，南航荣获中国民航飞行安全最高奖“飞行安全钻石二星奖”。', '简介：广州实验室于2021年正式成立，是呼吸系统疾病及其防控领域的新型科研事业单位，由钟南山院士担任实验室主任。实验室通过引进和培养国内外呼吸系统疾病及防控领域高端人才，组建了多学科交叉、青年学术骨干担纲的高水平人才队伍，着力解决呼吸系统疾病及其防控领域关键核心科学和技术难题，组建平战结合的综合创新研究平台和设施集群，打造应对呼吸系统疾病领域预防、预警与防控的关键科技力量。', '在疫情防控中，广州实验室产出了“猎鹰号”气膜实验室、疫情预测模型系统等多项关键成果，参与了新冠疫苗、应急药物、快速抗原检测等研究项目，为我国疫情防控工作贡献了积极力量。', '简介：广州（琶洲）人工智能与数字经济试验区是一个以琶洲为核心、以珠江为纽带、以产业融合发展联动周边区域的试验区。围绕打造成为人工智能与数字经济技术创新策源地、集聚发展示范区、开放合作重点区、制度改革试验田的战略定位，广州试验区构建“一江两岸三片区”空间格局，总面积约81平方公里。目前，起步区琶洲西区已引入腾讯、阿里巴巴、唯品会等39家人工智能与数字经济领军企业。在龙头企业的辐射带动下，琶洲核心片区内企业数量已达3.4万家，营收数据突破4000亿元，平均企业营收数据已超1100万元，整体产业效益正处于高速增长阶段。（记者 马涛 张笑闻 整理）']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>154</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>省委发出通知要求认真学习贯彻习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2019-09-23</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-23/955330.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['9月22日，中共河南省委发出《关于认真学习贯彻习近平总书记考察调研河南时重要讲话精神的通知》，通知要求，学习贯彻习近平总书记重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事，要充分认识习近平总书记考察调研河南的里程碑意义，深刻领会习近平总书记重要讲话精神的精髓要义，牢牢把握习近平总书记重要讲话精神的实践要求，以扎实作风确保习近平总书记重要讲话精神不折不扣地落地落实。', '通知指出，要充分认识习近平总书记考察调研河南的里程碑意义，切实强化责任意识和使命担当。习近平总书记重要讲话精神具有十分鲜明的政治性、思想性、战略性，与总书记2014年视察指导河南和今年全国两会参加河南代表团审议时提出的重大要求相互贯通，是推动河南发展的科学指引、做好河南工作的根本遵循。全省各级党组织要坚持以习近平新时代中国特色社会主义思想为指导，站在增强“四个意识”、坚定“四个自信”、做到“两个维护”的高度，用心用情感悟总书记重要讲话的深刻内涵，以高度的责任感和强烈的使命感抓好学习、贯彻和落实，切实把总书记的关心关怀转化为对党绝对忠诚的政治信仰，把总书记指示要求转化为推动高质量发展的巨大动力，把总书记殷殷嘱托转化为造福人民的务实举措，坚决走好新时代长征路，同心共筑中国梦、争先进位谋出彩。', '通知要求，要深刻领会习近平总书记重要讲话精神的精髓要义，进一步把准中原更加出彩的前进方向。要深刻领会习近平总书记关于河南经济社会发展的总目标总要求，认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。深刻领会习近平总书记关于推动经济高质量发展的重大要求，坚定高质量发展不动摇，着力打好“四张牌”，加快质量变革、效率变革、动力变革。深刻领会习近平总书记关于扎实实施乡村振兴战略的重大要求，牢记总书记重托，扛稳粮食安全这个重任，在乡村振兴中实现农业强省目标。深刻领会习近平总书记关于高度重视生态保护工作的重大要求，深入贯彻习近平生态文明思想，强化绿水青山就是金山银山的理念，擦亮绿色发展的底色。深刻领会习近平总书记关于切实保障和改善民生的重大要求，牢固树立以人民为中心的发展思想，以更大力度、更实举措抓好民生工作，持续增进民生福祉。深刻领会习近平总书记关于推动文化繁荣兴盛的重大要求，加快优秀传统文化创造性转化、创新性发展，推动宣传思想文化工作强起来，努力构筑全国重要的文化高地。深刻领会习近平总书记关于黄河流域生态保护和高质量发展的重大要求，充分认识保护黄河、治理黄河的重大意义，推动黄河流域生态保护和高质量发展迈出新的更大步伐。深刻领会习近平总书记关于牢记初心使命、传承红色基因的重大要求，担负起开展好主题教育、走好新时代长征路的责任，担负起用好红色资源、传承红色基因的责任，担负起发展老区、造福老区人民的责任。', '通知要求，要牢牢把握习近平总书记重要讲话精神的实践要求，抢抓机遇推动各项工作上台阶上水平。要挺起先进制造业这个脊梁，强化基础能力这个支撑，用好改革开放这个法宝，巩固粮食生产这张王牌，打造中原文化这个名片，抓住中部地区崛起战略机遇奋勇争先。要建立组织推进工作机制，加强与国家有关部门对接衔接和沿黄跨省域协调联动，组织开展重大专题研究，编制我省整体规划并抓好组织实施，抓住重大国家战略机遇把黄河保护好治理好。要以打好打赢脱贫攻坚战为抓手，既要扶智又要扶志，因地制宜发展红色旅游、生态观光、特色种养等优势产业，保护提升传统村落、特色村落，千方百计带领老区人民脱贫致富，用好红色资源、讲好红色故事，抓住重大发展机遇开创老区振兴发展新局面。要用好郑洛新国家自主创新示范区、中国（河南）自由贸易试验区、招才引智创新发展大会等载体平台，加快创新链、产业链、人才链、资金链深度融合；加快郑州国家中心城市、洛阳副中心城市和区域中心城市建设，深入实施百城建设提质工程，构建以中原城市群为主体、大中小城市和小城镇协调发展的现代城市体系；以实施“四大行动”为抓手强化源头治理，铁心、铁面、铁腕打好污染防治攻坚战，加快建设森林河南，让绿满中原成为河南的新标识；加快形成绿色发展方式和生活方式，建设美丽乡村，鼓励外出务工人员返乡创业，做好以党的建设为根本的基层基础工作，全面推进乡村振兴战略的河南实践，抓住重大潜在机遇弥补高质量发展短板。', '通知强调，要以扎实作风抓好习近平总书记重要讲话精神的学习贯彻，不折不扣地落地落实。要在深学细悟中抓落实，紧密结合“不忘初心、牢记使命”主题教育，带着信仰学、带着责任学、带着感情学、带着好的学风学，运用五种学习方式，采取集中学习、专题交流、读书班等多种形式，深刻领会贯穿其中的精髓要义；坚持领导带头，强化宣传引导，推动习近平总书记重要讲话精神进企业、进农村、进机关、进校园、进社区、进网络，进一步激发全省干部群众干事创业的巨大热情。要在对标对表中抓落实，紧紧围绕如何在中部地区崛起中奋勇争先、谱写新时代中原更加出彩的绚丽篇章等目标任务，紧盯城镇化水平低、环境保护形势严峻等突出问题，逐项逐条梳理，列出一批调研专题，把情况吃透、把问题挖深、把对策找准，切实把调查研究的过程变成深化学习的过程、变成深入落实的过程。要在埋头苦干中抓落实，树牢“五比五不比”工作导向，持续营造学的氛围、严的氛围、干的氛围，统筹做好经济“六稳”、三大攻坚战和新中国成立70周年大庆安保等各项工作。要深入开展“不忘初心、牢记使命”主题教育，充分运用第一批主题教育的成功做法，注重分类指导、强化上下联动、解决突出问题，落实领导干部带头为基层减负的五条措施，力戒形式主义、官僚主义，做到全覆盖、落到底、不走样。要持续跟踪问效，把学习贯彻落实情况纳入各级领导班子和领导干部考核的重要内容，列入巡视巡察、专项督查的重要内容，确保习近平总书记重要讲话精神不折不扣落实到位，以优异成绩迎接新中国成立70周年。（记者 李铮 马涛）']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>154</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨千年商都如何蝶变科创名城</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-11/2740792.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['站在广州人工智能与数字经济试验区唯品会大厦45层，俯瞰全城，完美的矛盾体跃然眼前——这里既是充满历史沧桑的厚重之城，也是朝气蓬勃的科创之都。', '5月10日，河南省党政代表团来到广州学习考察，探寻这座千年不衰的商业城市如何蝶变成为科创名城。', '“把体量庞大的固废‘化废为宝’，我们这项‘负碳技术’还是很有竞争力的，公司正准备上科创板。”固岩科技发展有限公司负责人陈忠平踌躇满志地说，广州正迎来科技人才创业的黄金期。', '“我们自主研制的折叠式人工玻璃体球囊，克服了传统治疗手段的并发症问题，已经让4000多名眼部受伤患者复明。”广州卫视博生物科技有限公司创始人高前应说，为了服务好这个不大的病人群体，公司已探索了20年。', '在广州的地图上，一条南北贯穿的科技创新“中轴线”，延绵五六十公里。这里集聚了大量的科创园区、孵化器、科创企业、科研院校，腾讯、阿里巴巴、小米、科大讯飞、视源股份、泰斗微电子、润芯信息等知名科技企业皆于此生长。', '缘何要打造这一“中轴线”？广州市委工作人员介绍，一座城市的发展史，往往铭刻于城市中轴线。', '广州第一中轴线北起越秀山中山纪念碑，南至海珠广场，带来了千年商都的文化底蕴，见证了“革命的摇篮”向一线城市进化；第二中轴线北起燕岭公园，跨过珠江至洛溪新客运港口，造就了财富神话，描绘着国家中心城市向国际化大都市的迈进。', '为了打造科创之城，广州把优化创新空间布局摆在了首要位置，绘就“新中轴”，以中新广州知识城和南沙科学城为极点，沿途广州人工智能与数字经济试验区、广州国际生物岛等关键节点“穿珠成链”，集聚了科技基础设施、科研院所和科技型企业，挺起广州科创新蓝图的脊梁。', '“未来广州的发展，就要依靠这些科技型创新企业了，‘新中轴’也将成为城市的新中心。”暨南大学公共管理学院教授胡刚说。', '广州海洋实验室参与完成的“我国率先实现水平井钻采深海可燃冰”，成功入选2020年中国十大科技进展，我国也成为全球首个采用水平井钻采技术试采海域天然气水合物的国家；', '广州实验室研发出新冠IgM抗体快速检测试剂盒、磷酸氯喹老药新用法等一大批成果，为我国乃至全球新冠疫情防控提供重要科技支撑。', '如今，广州已成为全国唯一拥有国家实验室、综合类国家技术创新中心、国家重大科技基础设施、国际大科学计划、国家未来产业科技园等“国字头”重大科技创新平台的城市。', '大院大所“头雁”领飞，科技企业加速落地……这些堪称教科书般的案例，折射出广州双链深度融合、双链协同发力的清晰思路，同时也迸发出无穷的力量。', '去年，广州新增科技创新企业4万家，总数突破16.9万家。其中，高新技术企业净增近4000家，总数达到8700家，连续两年呈爆发式增长。', '有了科技赋能，广州加速形成了新一代电子信息、绿色石化、智能家电、软件与信息服务、汽车等8个万亿元级产业集群，科研成果转化为实实在在的经济收益。', '11年前，广州国际生物岛还是个荒芜的江心小岛。今天，这个1.83平方公里的小岛，已经成为广州生物医药产业的核心引擎，“新中轴”上的“科创明星”。', '比如，开通时速高达160公里的广州地铁18号线和广州地铁22号线，促进广州与珠江口东西两岸的城市群互联互通。', '再如，建设穗莞深城轨琶洲支线，让广州实现高铁进城。从广州人工智能与数字经济试验区琶洲核心片区，到广州南站开车只要10分钟，到白云机场仅需半个小时。', '发展求新，人才先行。广州优化实施了“广聚英才计划”，面向全球引进符合主导产业发展方向的创新领军人才和团队达1.8万人，打造了梯次衔接的高层次人才队伍，人才培养、引进、使用、评价、激励、流动机制更加健全。', '走过千山万水，仍需跋山涉水。在解释广州为何是千年不衰的活力之城时，经济学家林毅夫说，同样具有地理优势的，中国还有很多城市，广州能够长盛不衰至今，实际上是人努力的结果。（记者 逯彦萃 郭北晨）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>154</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>风起长三角潮涌大中原一论我省党政代表团赴沪苏浙学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/11-23/1906610.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['在深入学习贯彻党的十九届五中全会精神，统筹谋划“十四五”时期经济社会发展的关键时期，我省党政代表团赴上海、江苏、浙江学习考察，瞻仰红色遗址、深入企业调研、开展合作交流、签约投资项目，深度对接长三角一体化和长江经济带国家战略，学习借鉴先进地区发展经验，主动融入“双循环”新发展格局。', '一路考察，一路学习，一路深思，代表团怀着学习标杆“见贤思齐”的责任感、迎头赶上时不我待的紧迫感，从得风气之先的长三角地区发展中如饥似渴地汲取能量。这是一次牢记初心使命、推进自我革新的精神之旅，是一次践行新发展理念、更新思想观念的学习之旅，一次科学把握新发展阶段、主动融入新发展格局的合作之旅。', '砥砺初心，坚定不移走好新时代长征路。我省党政代表团先后瞻仰了中共一大会址、南湖红船，参观了革命纪念馆，重温入党誓词，回望初心使命，在中国共产党成立100周年前夕，上了一堂生动深刻、立意深远的党课。', '隐藏在上海居民区的一大会址，静静地停泊于嘉兴南湖的红船，是我们党梦想起航的地方，昭示着共产党人的初心和使命。河南孕育生发的焦裕禄精神、红旗渠精神、大别山精神与“红船精神”一脉相承、紧密相连，共同注入共产党人的血脉。当前，我省正全力打赢脱贫攻坚收官战，扎实做好“六稳”“六保”工作，迈向全面建设社会主义现代化的新征程，尤须把党的“精神之火”传承好、发扬好，从中汲取无穷的力量，以永不懈怠的精神状态和一往无前的奋斗姿态，坚定不移走好新时代长征路。', '对接引进，务实借力推进高质量发展。党的十九届五中全会提出，“加快发展现代产业体系，推动经济体系优化升级”“推进产业基础高级化、产业链现代化，提高经济质量效益和核心竞争力”。今天的河南，在进行承接产业转移量的积累的同时，亟须质的提升。比如，我省吸引了上海汽车、宝武钢铁、阿里巴巴、拼多多等一大批中国500强企业、龙头企业先后来豫投资，有效助推了我省产业转型升级提质增效和主导产业集群培育。', '本次在上海、江苏、浙江签约的一系列项目，涵盖数字经济、先进制造、生物制药、科技创新、金融旅游、教育医疗等多个领域，体现了更深层次的产业合作、更高能级的产业模式、更高水平的产业生态，对于我省打好产业基础高级化、产业链现代化攻坚战，着力形成“能级更高、结构更优、创新更强、动能更足、效益更好”发展态势，必将发挥巨大的推动作用。', '更新观念，矢志不移凝聚起奋勇争先的精气神。从G60科创走廊的创新生态圈到紫金山实验室的高精尖技术，从浦东新区企业服务中心的“AI+政务服务”到杭州的“城市大脑”，从西湖大学的科研成就到先声药业的新药研发……在这次考察学习中，来自长三角的改革魄力、创新精神、开放意识、服务理念，带来了认识的冲击、思想的震撼和深刻的思考，愈加汇聚起坚定不移实施创新驱动发展的共识。', '党的十九届五中全会通过的“十四五”规划建议和2035年远景目标中，新发展理念贯穿发展的全过程和全领域。通过这次考察学习，深入感悟学习那种敢闯敢试、敢为人先的创新意识和“会吃螃蟹、敢吃螃蟹”的首创精神，学习那种“把冷板凳坐热”的苦干精神和“争第一、创唯一”的精气神，学习那种智慧型“店小二”的服务精神和与世界接轨的开放精神，切实转变发展观念，以新发展理念为引领，奋勇争先，勇创一流，我省经济社会发展定能颜值更高、筋骨更壮、气质更佳。', '抢抓机遇，积极主动融入新发展格局。加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局，是事关全局的系统性、深层次变革。河南市场空间广阔、人力资源丰富、区位优势独特，中部地区崛起、黄河流域生态保护和高质量发展等重大战略机遇叠加，正释放巨大的消费和投资需求，如火如荼打造国内大循环的重要战略支点、国内国际双循环的重要战略节点。', '我省与长三角产业对接性强、关联度高，产业供应联系紧密，深化合作潜力巨大。以这次考察学习之行为契机，把上海、江苏、浙江的技术优势、资本优势与河南的市场优势、资源优势结合起来，在推动区域协调发展、科技创新、产业合作、数字经济等方面开展全方位、多领域的合作，在国家战略对接中抢抓机遇、加快发展，在主动融入“双循环”中优势互补、互利共赢，必能打造跨区域合作和国内循环示范样本，为全国发展大局作出新的更大贡献。', '风从东方来，潮涌大中原。打开一张中国地图，黄河中下游沿线城市发展带与长江经济带、长三角，清晰地构成了中国经济的两大地理横轴。双方加强合作交流，共享发展新机遇，携手构建新发展格局，定能谱写新时代区域协调发展的绚丽篇章。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>154</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>聚焦河南党政代表团赴粤鄂学习考察丨山水相连人文相亲豫鄂合作空间无限</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/05-13/2742232.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['“十四五”以来，河南积极融入对接长江经济带，围绕重点产业，持续深化推进与湖北省高质量合作，通过举办招商引资、项目对接、企业拜访等系列活动，推动双方合作领域不断拓宽，合作层次持续提升。', '去年4月，全省第四期“三个一批”项目建设活动中，河南惠强新能源材料科技股份有限公司位于遂平县的新材料产业园二期项目举行开工仪式。', '这是2010年武汉惠强新能源材料科技有限公司在我省布局建立第一条生产线之后，再次扩容投资。作为一家专注新能源汽车动力电池智能隔膜研发、生产、销售的高新技术企业，此次开工项目总投资18亿元，主要建设9条新能源汽车动力锂电池隔膜生产线、年产4万吨可降解材料和1万吨生物降解制品生产线，项目建成达产后，可实现年销售收入10亿元以上。', '像惠强新能源一样的企业还有很多。湖北省是我省引进省外资金的来源地之一，“十四五”以来，该省企业共在我省投资项目477个，实际投入资金1017.8亿元。尤为值得关注的是，豫鄂两地在新能源、新能源汽车、新材料、生物医药、现代物流等新兴产业领域合作成果丰硕。恩施锂泰新能源、湖北卡仕威汽车、湖北广济药业、武汉惠强新能源材料等一批知名企业在河南投资布局。', '一个项目带动一方发展。遂平县政府相关负责人表示，惠强新能源作为当地的战略性新兴产业龙头企业，发展势头强劲，助力该县交通、电力等行业高速发展，并为全县绿色低碳发展注入新动力。', '大卡车来回穿行，起吊机自动化作业……5月的信阳港·淮滨中心港，集装箱装卸一派繁忙。从这里起航，河南造货物可沿着淮河干流，通过京杭大运河入长江，最终经由宁波港转运到欧洲。', '近年来，河南加快推进内陆河运通江达海，通过淮河直通长江，打开了联通世界的“海上丝路”。河南与湖北，通过水运“握紧双手”。', '信阳市港务中心数据显示，淮滨中心港2022年1月4日正式开航以来，发展势头强劲，去年完成货物吞吐量417万吨、集装箱11147标箱。', '随着河运的畅通，越来越多的河南船只驶入长江。据统计，目前有超5000艘散货船、数万名河南船民常年闯荡在长江上，综合运力超千万吨。', '武汉华运达船务有限公司董事长田少华在武汉从事航运事业已经十几年，“与我们打交道的多数是河南船。武钢每年所需的1亿吨矿石，到长江口以后的内河运输，75%靠咱河南船承运。”田少华说，河南船员诚实守信、吃苦耐劳，困难的时候能冲上去，货物装在河南船上放心，货主都喜欢河南的船。', '今年4月，河南南阳市与湖北襄阳市达成互惠互利的跨省劳务协作框架协议。两地将在市级层面成立劳务协作工作专班，组织跨省招聘会和劳动就业相关活动，常态化发布企业用工信息，促进两地岗位供求双方对接，助推襄（阳）南（阳）城市组团高质量发展。', '早在2018年，国务院批复的《汉江生态经济带发展规划》就提到，发展壮大襄（阳）南（阳）城市组团，推动襄阳南阳加快在基础设施、产业发展、公共服务、生态环保等方面一体化进程，合力打造城市圈。2022年，河南省人民政府印发的《河南省“十四五”深化区域合作融入对接国家重大战略规划》明确提出，深化豫鄂川渝高质量合作，持续加强与湖北等省（市）交通物流及产业合作，协同推进汉江生态经济带建设。', '山水相连，人文相亲，携手发展动力才更足。据了解，湖北公共招聘网襄阳频道即将上线“南阳就业信息发布专区”，南阳公共招聘网也将建立“襄阳就业信息发布专区”，一系列切实举措将推动两地人力资源共享、人力资源市场共建，并带动产业发展协同布局，经贸合作愈走愈深。（记者 孙静）']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>154</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>河南省党政代表团在京学习考察深化京豫两地合作携手共谋十四五发展</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2020-12-19</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2020/12-19/2003611.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['12月19日，河南省党政代表团在北京学习考察，认真学习贯彻党的十九届五中全会和中央经济工作会议精神，学习借鉴先进理念和经验，谋划推动河南“十四五”时期发展。当天，北京市·河南省战略合作座谈会举行。中共中央政治局委员、北京市委书记蔡奇，北京市市长陈吉宁、市人大常委会主任李伟，河南省委书记王国生、省长尹弘出席。', '蔡奇对河南省党政代表团来京考察表示欢迎，对河南长期以来给予北京的大力支持表示感谢。他指出，南水北调一泓清水把京豫两地人民紧紧连在一起。要深入贯彻党的十九届五中全会精神，深化京豫对口协作，推进多领域合作，在构建新发展格局中实现互利共赢。要高标准落实对口协作任务，推进两地区县（市）结对帮扶，谋划实施一批具有带动示范意义的战略性项目。共同抓好生态环境保护，深化南水北调水源保护合作，持续开展大气污染联防联控联治，携手打造天蓝水净的优美环境。以创新为引领推动产业合作，发挥中关村国家自主创新示范区的辐射带动作用，利用在京科技资源，支持河南传统产业转型升级，推动北京科技创新成果在河南落地转化，引导京企到豫发展。推进北京自贸区与河南自贸区合作，共同打造高水平对外开放高地。以大运河文化传承利用为纽带，携手做好考古挖掘、文化保护和旅游开发。深化两地学校、医院“手拉手”结对活动，加大专业人才交流和培训力度。拓宽河南省优质农产品进京渠道，支持京企到豫建设绿色农产品生产基地。', '王国生对北京长期以来给予河南的支持帮助表示感谢，他说，近年来，北京市立足首都城市战略定位，加快推进“四个中心”功能建设，提高“四个服务”水平，大格局谋划、精细化治理，实现经济实力和发展质量同步提升，创造了许多宝贵经验，为河南树立了学习标杆。河南与北京渊源深厚、情谊悠长，南水北调中线一期工程通水6年来，河南统筹推进水环境治理、水生态保护，确保一渠清水永续北送。今年年初以来，面对突如其来的新冠肺炎疫情，全省各级党组织和广大党员干部主动担当作为，充分发动群众，坚决筑牢疫情防控的中原防线。当前，河南全省上下正在深入贯彻落实党的十九届五中全会和习近平总书记视察河南重要讲话精神，认真学习贯彻中央经济工作会议精神，牢牢抓住中部地区崛起、黄河流域生态保护和高质量发展重大战略机遇，深入谋划“十四五”时期发展。我们将发挥优势、强化对接，共同推动京豫两地合作交流迈上新台阶，携手为“十四五”开好局起好步作出更大贡献，以优异成绩迎接建党100周年。', '陈吉宁、尹弘分别介绍了两地经济社会发展情况。河南省政府与北京市政府签署战略合作协议，双方将在南水北调对口协作、加强生态环保、科技创新、产业转移、文旅融合发展等方面深化合作，打造跨区域合作样板和国内循环示范亮点。', '当日，河南省党政代表团参观了北京城市副中心规划展厅，考察了千年城市守望林、中关村智造大街等地。', '北京市领导魏小东、崔述强、张家明、隋振江、靳伟，河南省领导李亚、穆为民、徐立毅、武国定参加活动。（记者 李铮 马涛）']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>154</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>我省各地召开领导干部会议传达学习习近平总书记考察调研河南时重要讲话精神</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/09-24/955579.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['我省各地召开领导干部会议 传达学习习近平总书记考察调研河南时重要讲话精神 砥砺初心使命 奋力干事创业', '连日来，焦作、漯河、济源、周口等地召开领导干部会议，认真传达学习习近平总书记考察调研河南时重要讲话精神、在黄河流域生态保护和高质量发展座谈会上的重要讲话精神，传达学习全省领导干部大会精神，安排部署贯彻落实工作。', '焦作市领导干部会议指出，习近平总书记的重要讲话对河南把脉精准、方向清晰，极大提振了全市上下砥砺前行、干事创业的斗志和激情。就贯彻习近平总书记重要讲话精神，焦作市委书记王小平强调，要把制造业作为主攻方向，抓住中部地区崛起战略机遇、用好郑焦一体化发展这个平台，借力借势推进焦作市制造业转型升级、提质增效。要以深化农业供给侧结构性改革为主线，加快发展现代高效农业，推进一二三产业融合发展，促进农业提质增效。要将黄河流域生态保护和高质量发展摆到突出位置，加快实施沿黄生态廊道建设、湿地保护恢复等工程，坚持山水林田湖草生态空间一体化保护，坚持既做好黄河干流文章又做好沁河、蟒河等支流文章，坚持与周边城市环境污染协同治理，形成全域系统治理新格局，保障黄河长治久安。要扎实推进黄河文化遗产的系统保护，深入挖掘黄河文化蕴含的时代价值，讲好“黄河故事”，进一步凝聚焦作高质量发展的精神力量。', '漯河市领导干部会议要求，坚决把学习宣传贯彻习近平总书记重要讲话精神作为首要政治任务，找准贯彻落实的切入点，把总书记的关怀转化为对党绝对忠诚的政治信仰，转化为推动高质量发展的巨大动力，转化为新时代漯河经济社会发展的实际成效。漯河市委书记蒿慧杰表示，要着力推动经济高质量发展，做优做强食品制造等主导产业，走现代服务业和先进制造业双轮驱动之路，加快产业转型升级，形成高质量发展的竞争优势；要坚持创新驱动、改革推动、开放带动三力联动，激发高质量发展的磅礴力量；要不断强化基础能力建设，为高质量发展提供有力支撑；要强力推进豫中南地区性中心城市、中原生态水城、中国食品名城、中华汉字文化名城建设，构筑新时代漯河高质量发展战略优势；要把习近平总书记关于第二批主题教育的重大要求作为根本遵循，不断砥砺初心使命，确保主题教育取得扎实成效，谱写新时代漯河更加精彩的绚丽篇章。', '济源领导干部会议要求，把学习习近平总书记视察河南重要讲话精神作为首要政治任务，认真学习好、宣传好、贯彻好、落实好，切实把思想统一到习近平总书记重要讲话精神上来。济源产城融合示范区党工委书记张战伟强调，要把学习习近平总书记重要讲话精神和学习习近平新时代中国特色社会主义思想结合起来，坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，进一步推动济源经济社会高质量发展。要坚持新发展理念，坚持高质量发展方向，坚持生态优先、绿色发展，坚持工业强区、旅游富民、产城融合、城乡一体发展路径，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，坚决打好三大攻坚战，加快建设国家产城融合示范区，为在中原更加出彩进程中济源出重彩作出新的更大贡献。要牢记总书记谆谆嘱托，扎实开展好“不忘初心、牢记使命”主题教育，用主题教育的实际成效，推动全面从严治党向基层延伸、向纵深发展。', '周口市领导干部会议要求全市各级党组织和广大党员干部提升政治站位，把学习宣传贯彻习近平总书记视察河南重要讲话精神，作为当前和今后一个时期的首要政治任务和头等大事，按照全省领导干部大会安排部署，切实加强组织领导，迅速掀起学习宣传贯彻的热潮。周口市委书记刘继标强调，把思想和行动高度统一到习近平总书记重要讲话精神上来，要从坚定落实习近平总书记重要讲话精神和重大要求中强化担当，担负起加快推动周口高质量跨越发展的时代重任，不忘初心、牢记使命，坚定信心、埋头苦干、奋勇争先，加快建设“满城文化半城水、内联外通达江海”的中原港城，奋力绘就周口特色添彩画卷，在谱写新时代中原更加出彩绚丽篇章中展现周口担当作为。（记者 陈学桦 郭海方 成利军 赵春喜 通讯员 焦娇）']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>154</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>深入学习贯彻党的二十大精神丨风起中原豫满天山哈密市党政代表团来豫考察侧记</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2023/02-03/2683097.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['深入学习贯彻党的二十大精神丨风起中原 “豫”满天山 ——哈密市党政代表团来豫考察侧记', '春节假期刚过，河南就迎来一群远方的客人。1月30日至2月2日，哈密市党政代表团一行20余人到河南学习考察。4天时间，代表团走进郑州、洛阳的20余个考察点，行程密集，马不停蹄。', '客人亦是家人。山河相望，豫哈情长，2010年新一轮对口援疆工作开展以来，河南对口支援哈密和新疆生产建设兵团第十三师，哈密市党政代表团这次到河南考察也可谓“回家探亲”。', '寒意未消，中原大地已处处涌动春潮。代表团成员实地走访，感受河南发展的新变化、新风貌、新成果，在交流互鉴中开拓思路、获得启发。', '规划先行，一张蓝图绘到底。代表团登上郑东新区规划展览馆360度玻璃幕墙围合的环廊，搭乘自动驾驶公交车游览金融岛，了解到自2001年规划建设以来，郑东新区一张蓝图绘到底；走进洛阳市规划展示馆，领略洛阳城市规划的历史之美、时代之美、未来之美。大家纷纷感叹前瞻性、高起点、高标准的规划对城市的重要意义。', '创新引领，发展动力更强劲。上汽乘用车郑州基地生产繁忙，借助智能化、自动化、无人化改造，总装车间内平均每隔51秒就有一辆整车完成生产；依靠自主创新，宇通客车热销全球，工作人员介绍，所有宇通客车的单日运行里程，相当于一天往返地球和月球30次。哈密市工信局党组书记张友鹏说：“我感受到了惊人的速度与效率。河南处处呈现出大建设、大发展、大开放，抢抓机遇拼经济的景象。”', '文旅融合，城市焕发新生机。只有河南·戏剧幻城通过可触、可感的全新艺术形式带来沉浸式体验，隋唐洛阳城国家历史文化公园在保护中发展，重现古都风华。第4次到访河南的哈密市卫健委主任莎代提·艾买提感慨河南变化之大，她说：“更可喜的是，我看到城市发展与中原文化紧密融合，相得益彰。”', '哈密与河南在区位、资源、产业等方面，互利合作空间广阔。考察期间，代表团走访多家省直部门、重点企业、高校等，交流座谈、洽谈项目、签署协议。“豫哈两地合作基础很扎实！”“要推动合作的机制化、内容的实质化。”谋合作的迫切心情成为代表团成员的共同感受。', '2个多月前，哈密市政府与位于郑州的森思达新能源科技有限公司“云上签约”，森思达哈密氢能综合项目一期将利用哈密的风、光资源发电制氢，年产10万吨绿氢。此次，代表团特意来到企业现场考察，交谈更深入、对接更具体，双方都认为在新能源领域的合作大有可为。', '走进洛阳理工学院，10余块展板展示着学校近年来与哈密合作结出的累累硕果：开发设计哈密文创产品、整理300余万字的哈密文史研究资料、与哈密职业技术学院达成战略合作……哈密市教育局党组书记万生志说：“河南作为教育大省、人口大省，教育方面有很多值得哈密学习的地方，我们也将与河南高校在职业教育方面继续深化务实合作，落实好立德树人的根本任务。”', '“此行收获很大。来豫考察对于哈密在全疆率先基本实现现代化、建设西北五省区高质量发展典范城市和中国式现代化典范城市，具有十分重要的意义。”哈密市副市长，市发改委主任、援疆办主任李建勇说。', '在万邦农产品物流城，代表团遇到了批发果品的商户徐帅帅。“哈密产的哈密瓜，品相好、味道甜。我们家专注卖哈密瓜30年，在哈密承包了几千亩地种瓜，运到郑州后发往全国各地，靠着卖瓜过上了好日子！”听了徐帅帅的介绍，代表团成员倍感亲切，你一言我一语地上前询问。“希望路修得再好点，绿色通道再快一点，推动品牌化，让大家一提起哈密的瓜，就知道是好瓜！”徐帅帅也给代表团提出自己的心愿。', '小小哈密瓜，是豫哈携手共进的缩影。哈密市委书记孙涛表示，将努力把河南对口支援哈密工作打造成推动高质量发展的牵引性工程、民族团结的标志性工程、凝聚人心的示范性工程。他说，希望深化两地各领域合作，未来能够变政府工作为社会参与，变行政推动为市场驱动，变单项援助为合作共赢。', '互促共兴的动力源自传承千年的友谊。横跨天山南北、扼守新疆“门户”的哈密是丝绸之路重镇，自古与中原交往密切。1月31日，当郑州地铁“哈密号”专列在代表团的见证下开通，历史和当下在这一刻交汇，绽放出新的光彩。考察结束时，每个人都在思索回去之后怎么干。其实答案已了然于心——同心协力，让交流交融更深入、更实在、更走心。（记者 沈剑奇）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>154</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>王国生在听取我省乡村振兴示范县赴赣浙学习考察情况汇报时强调把准方向坚定贯彻新发展理念发挥优势推动乡村振兴走在前列</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2021/01-27/2086003.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['王国生在听取我省乡村振兴示范县 赴赣浙学习考察情况汇报时强调 把准方向坚定贯彻新发展理念 发挥优势推动乡村振兴走在前列', '1月26日，省委书记王国生主持召开座谈会，深入贯彻落实习近平总书记视察河南重要讲话和中央农村工作会议精神，听取我省乡村振兴示范县赴赣浙学习考察情况汇报，研究全面推进乡村振兴工作。', '去年9月，我省20个乡村振兴示范县县委书记赴江西省横峰县、浙江省安吉县学习考察。座谈会上，兰考县、孟津县、林州市、长垣市、濮阳县、临颍县、灵宝市、西峡县、新县、沈丘县党委负责人畅所欲言，谈收获、讲思路、提建议。王国生认真倾听，和大家深入交流。王国生说，到江西省横峰县、浙江省安吉县考察，对标先进地区，大家既开阔了视野、学到了方法，又找准了定位、坚定了信心，更加深刻认识到必须以新发展理念为引领全面推进乡村振兴，更加深刻体会到构建新发展格局农村空间巨大、大有作为，更加深刻感受到全面推进乡村振兴是河南发展的特色优势所在、潜力希望所在。要把学习考察的成果消化好、运用好，转化为理念上的转变、思路上的拓展、能力上的提升，努力在践行新发展理念、推进乡村振兴上走在前列。', '王国生指出，我省乡村点多面广、人口众多，全面推进乡村振兴责任重大、任务艰巨。要把牢方向，深入贯彻落实习近平总书记重要讲话精神，以县域治理“三起来”、乡镇工作“三结合”为根本遵循，坚持农业农村优先发展，统筹好产业、人才、文化、生态、组织振兴，处理好乡村振兴与脱贫攻坚、城镇与乡村、生产生活生态的关系，努力实现农业高质高效、乡村宜居宜业、农民富裕富足的目标。要把准趋势，准确把握新发展阶段中城乡融合、产业发展、人口流动、技术革命新趋势，充分发挥新发展格局下我省农业基础、交通区位、内需市场、人力资源等新优势，抢抓机遇、补齐短板、深挖潜力，在更高起点上推动乡村振兴。要结合实际，总结运用好过去的好经验好做法，立足县域资源禀赋，找准发展现代农业的抓手、加快乡村建设的载体、促进城乡融合的关键，探索走出具有区域特色的乡村振兴之路。', '王国生向奋战在“三农”工作一线的广大干部群众表示慰问。他指出，县委书记是乡村振兴的“一线总指挥”，要把主要精力放在“三农”工作上，传承弘扬焦裕禄同志“三股劲”，保持迎难而上的硬作风，拿出开拓创新的真本领，在全面推进乡村振兴中展现新担当新作为。他强调，乡村是当前疫情防控的重点地区。临近春节，我省人员返乡流动压力较大，要坚持“外防输入、内防扩散”，抓实抓细常态化疫情防控工作，持续发挥基层党组织战斗堡垒作用和党员先锋模范作用，严格落实各项防控措施，不断完善应急预案、提高处置能力，倡导文明健康生活方式，坚决守好基层疫情防控阵地，让人民群众安全过年、欢乐过节。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>154</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>省委常委会召开会议学习习近平总书记在甘肃考察时的重要讲话精神研究全国民族运动会筹备高质量发展考核等工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2019-08-26</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2019/08-26/943721.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['省委常委会召开会议 学习习近平总书记在甘肃考察时的重要讲话精神 研究全国民族运动会筹备、高质量发展考核等工作', '8月23日，省委常委会召开会议，传达学习习近平总书记在甘肃考察时的重要讲话和对“记者再走长征路”主题采访活动作出的重要指示精神，研究部署第十一届全国少数民族传统体育运动会筹备等工作。省委书记王国生主持会议，省长陈润儿出席会议，省政协主席刘伟列席会议。', '会议指出，要认真学习贯彻习近平总书记在甘肃考察时的重要讲话精神和关于长征精神的重要论述，用好红色资源，讲好红色故事，传承红色基因，学深党史、新中国史，营造深刻认识红色政权来之不易、新中国来之不易、中国特色社会主义来之不易的浓厚氛围，推动主题教育走实走深走心，不断跨越改革发展中面临的“娄山关”“腊子口”，坚决打好打赢脱贫攻坚战，推动高质量发展，以实际行动走好新时代中原更加出彩的长征路。', '会议要求，高质量办好全国民族运动会是全省人民的一件大事，是献礼新中国成立七十周年、促进民族大团结的光荣任务，也是检验初心担使命的考验、凝心聚力谋发展的机遇。当前，全国民族运动会筹备工作已进入决战决胜的冲刺阶段，任务越紧越要抓细节，时间越近越要抓具体。要进一步提升站位，加强领导，切实把主题教育的成果落实到扛稳扛牢政治责任上来，落实到统筹协调形成合力上来，落实到万无一失的安保工作上来，落实到精细精准的赛事组织上来，落实到周密周到的接待服务上来，落实到奋进新时代、中原更出彩的良好氛围上来，争分夺秒、一丝不苟、全力以赴做好全国民族运动会各项筹备工作。', '会议还研究了2018年度市县经济社会高质量发展和产业集聚区高质量发展考核评价等有关工作。（记者 李铮）']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>154</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>许昌市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>河南省党政代表团到新疆考察学习深入落实新时代党的治疆方略奋力开创豫疆合作共赢新局面陈全国王凯雪克来提扎克尔王君正参加活动</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.henan.gov.cn/2021/06-10/2162111.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['河南省党政代表团到新疆考察学习 深入落实新时代党的治疆方略 奋力开创豫疆合作共赢新局面 陈全国王凯雪克来提·扎克尔王君正参加活动', '6月8日至10日，河南省党政代表团到新疆考察学习，交流谋划“十四五”对口援疆工作，深入推进豫疆合作。新疆维吾尔自治区党委书记陈全国，河南省委副书记、代省长王凯，自治区党委副书记、自治区主席雪克来提·扎克尔，自治区党委副书记、新疆生产建设兵团政委王君正参加有关活动。', '在疆期间，我省党政代表团与新疆维吾尔自治区、新疆生产建设兵团、哈密市和兵团第十三师新星市召开对口支援工作座谈会，并举行战略合作框架协议签约和捐赠仪式。', '座谈会上，陈全国代表自治区党委和政府及全区各族人民对河南省长期以来给予新疆的大力支持和无私支援表示衷心感谢。陈全国说，河南坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记关于河南工作的重要讲话重要指示精神，围绕构建新发展格局、促进中部地区崛起、黄河流域生态保护和高质量发展，推动经济社会高质量发展，社会主义现代化河南建设取得令人瞩目的成就，谱写了新时代中原奋勇争先、更加出彩的绚丽篇章。', '陈全国说，河南省委和省政府坚决贯彻以习近平同志为核心的党中央决策部署，始终把援疆工作作为重大政治责任，以经济发展和民生改善为基础，全方位全领域开展援疆工作，持续深化产业援疆、智力援疆、民生惠疆、文化润疆，不断提升对口援疆综合效益，有力促进哈密市和兵团第十三师经济社会发展，为新疆社会稳定和长治久安作出了重要贡献。新疆各族人民感恩在心。新疆将进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，深入贯彻落实党的十九届五中全会和第三次中央新疆工作座谈会精神，完整准确贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，立足新发展阶段、贯彻新发展理念、构建新发展格局，扛起主体责任，学习河南经验，完善工作机制，主动对接落实，深化务实合作，扎实做好社会稳定、常态化疫情防控、安全生产和经济高质量发展各项工作，以优异成绩庆祝建党100周年。', '王凯感谢自治区党委、政府对河南经济社会发展的大力支持，对河南援疆干部的关心培养。他说，此次新疆之行，是贯彻落实第三次中央新疆工作座谈会精神特别是习近平总书记重要讲话精神，进一步考察学习、研究对接援疆工作。“十三五”时期，河南省委、省政府牢记习近平总书记殷切嘱托，坚决贯彻党中央、国务院决策部署，全力以赴谋发展，实现了一系列具有标志意义的突破。在自治区党委、政府和兵团的支持下，河南坚持科学援疆、全面援疆、真情援疆、务实援疆，健全了工作机制，提升了工作成效，深化了豫疆交流合作，为哈密市和兵团第十三师的发展稳定、民生改善作了力所能及的贡献，豫疆一家亲氛围越来越浓厚，合作前景越来越广阔。', '王凯表示，当前河南正在实施“十四五”规划，开启现代化河南建设新征程，谱写新时代中原更加出彩的绚丽篇章。持续做好对口援疆是党中央赋予河南的光荣使命、重大任务，我们将深入学习领会习近平总书记在第三次中央新疆工作座谈会上的重要讲话精神，坚决扛牢政治责任，完整准确贯彻新时代党的治疆方略，完善和落实好对口援疆规划，紧贴对口支援地区实际需求，大力推进文化润疆、增进民族团结融合，着力推进民生惠疆、加快建设公共服务设施，扎实推进产业兴疆、增强高质量发展内生动力，把对口援疆和豫疆合作提升到更高水平，开创两地合作共赢新局面。', '考察期间，王凯深入唱歌的果食品公司、国家可再生能源信息管理中心哈密分中心、伊州区富民兴农综合市场、十三师新星市在建规划馆和职业技术学校等地，实地考察援疆产业发展、援疆项目进展情况。', '在哈密市委党校，陈全国、王凯看望慰问河南省第十批援疆干部人才，与大家合影留念。王凯勉励大家把援疆作为增强“四个意识”、坚定“四个自信”、做到“两个维护”的具体行动，提升站位、履职尽责，落实好自治区党委、政府和省委、省政府决策部署，以项目建设为带动、民生改善为根本，扎实做好各项工作，推动豫疆合作不断走向深入、对口支援地区持续稳定发展。他叮嘱援疆前指发挥好战斗堡垒作用，促进援疆干部人才强化团结协作、树立良好形象，开展好党史学习教育，推动兵团精神、胡杨精神与焦裕禄精神、红旗渠精神等融合、传承和弘扬，打造一支不走的援疆队伍。', '自治区和兵团领导艾尔肯·吐尼亚孜、沙尔合提·阿汗、陈伟俊、彭家瑞、吉尔拉·衣沙木丁、孔星隆，副省长武国定参加有关活动。（记者 归欣）']</t>
         </is>
